--- a/Sheets/CORDEX_ESGF_coordination_issues.xlsx
+++ b/Sheets/CORDEX_ESGF_coordination_issues.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="768" windowWidth="16608" windowHeight="8676" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="768" windowWidth="16608" windowHeight="8676" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralRemarks" sheetId="7" r:id="rId1"/>
     <sheet name="AllEntries" sheetId="4" r:id="rId2"/>
     <sheet name="DatVol" sheetId="10" r:id="rId3"/>
     <sheet name="ControlledVocabulary" sheetId="8" r:id="rId4"/>
+    <sheet name="DataAvail" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="AFR_22" localSheetId="3">ControlledVocabulary!#REF!</definedName>
@@ -33,7 +34,7 @@
     <definedName name="ANT44tier1">DatVol!$C$36</definedName>
     <definedName name="ARC_44">DatVol!$B$37</definedName>
     <definedName name="ARC44tier1">DatVol!$C$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">AllEntries!$A$1:$AW$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">AllEntries!$A$1:$AV$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">ControlledVocabulary!$A$1:$AW$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">DatVol!$A$1:$BA$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GeneralRemarks!$A$1:$O$4</definedName>
@@ -53,7 +54,7 @@
     <definedName name="MED44tier1" localSheetId="2">DatVol!$C$32</definedName>
     <definedName name="MED44tier1" localSheetId="0">GeneralRemarks!#REF!</definedName>
     <definedName name="MED44tier1">AllEntries!#REF!</definedName>
-    <definedName name="Print_Area" localSheetId="1">AllEntries!$A$1:$AW$10</definedName>
+    <definedName name="Print_Area" localSheetId="1">AllEntries!$A$1:$AV$9</definedName>
     <definedName name="Print_Area" localSheetId="3">ControlledVocabulary!$A$1:$AT$5</definedName>
     <definedName name="Print_Area" localSheetId="2">DatVol!$A$1:$AZ$39</definedName>
     <definedName name="Print_Area" localSheetId="0">GeneralRemarks!$A$1:$O$2</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="218">
   <si>
     <t>Domain</t>
   </si>
@@ -1132,6 +1133,79 @@
   <si>
     <t>Bjerknes Centre for Climate Research</t>
   </si>
+  <si>
+    <t>Hungarian Meteorological Service</t>
+  </si>
+  <si>
+    <t>Modeling Center</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>domain with published data</t>
+  </si>
+  <si>
+    <t>EUR-11</t>
+  </si>
+  <si>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>EUR-44</t>
+  </si>
+  <si>
+    <t>Alfred Wegener Institute, Helmholtz Centre for Polar and Marine Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abdus Salam International Centre for Theoretical Physics</t>
+  </si>
+  <si>
+    <t>Erika Coppola coppolae@ictp.it</t>
+  </si>
+  <si>
+    <t>Italian National Agency for New Technologies, Energy and Sustainable Economic Development</t>
+  </si>
+  <si>
+    <t>Sandro Calmanti sandro.calmanti
+@enea.it</t>
+  </si>
+  <si>
+    <t>EUR-44, EUR-44i</t>
+  </si>
+  <si>
+    <t>AFR-44</t>
+  </si>
+  <si>
+    <t>AFR-44 AFR-44i EUR-44 EUR-44i EUR-11 EUR-11i NAM-44 NAM-44i</t>
+  </si>
+  <si>
+    <t>AFR-44 AFR-44i  AUS-44 AUS-44i EAS-44 EAS-44i  EUR-44 EUR-44i</t>
+  </si>
+  <si>
+    <t>ANT-44 ANT-44i</t>
+  </si>
+  <si>
+    <t>EUR-44 EUR-44i EUR-11</t>
+  </si>
+  <si>
+    <t>AFR-44 AFR-44i</t>
+  </si>
+  <si>
+    <t>AFR-44 AFR-44i ARC-44 ARC-44i EUR-11 EUR-11i EUR-44 EUR-44i MNA-22 MNA-22i MNA-44 MNA-44i NAM-44 NAM-44i SAM-44 SAM-44i WAS-44 WAS-44i</t>
+  </si>
+  <si>
+    <t>ARC-44 ARC-44i</t>
+  </si>
+  <si>
+    <t>EUR-11 EUR-11i</t>
+  </si>
 </sst>
 </file>
 
@@ -1141,7 +1215,7 @@
     <numFmt numFmtId="164" formatCode="[$-407]d/\ mmm\ yy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,8 +1463,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,8 +1490,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="79">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -1923,21 +2010,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -2157,7 +2229,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -2167,66 +2239,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2255,99 +2267,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2448,6 +2367,101 @@
       <bottom style="double">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2458,7 +2472,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2548,7 +2562,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2562,7 +2576,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2627,7 +2641,7 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2638,13 +2652,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2652,26 +2666,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2680,28 +2694,19 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2713,61 +2718,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2781,7 +2738,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2794,9 +2751,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2814,81 +2768,18 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2915,28 +2806,19 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2945,34 +2827,97 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3034,7 +2979,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3042,9 +2987,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="58" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3054,7 +2996,438 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -3360,7 +3733,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3370,27 +3743,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="190" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
       <c r="M1" s="21"/>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
     </row>
     <row r="2" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54">
-        <v>41716</v>
+        <v>41731</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="61"/>
@@ -3407,21 +3780,21 @@
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="1:15" s="189" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="214" t="s">
+    <row r="3" spans="1:15" s="148" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="191" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
-      <c r="L3" s="188"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
     </row>
     <row r="4" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67"/>
@@ -3449,10 +3822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR37"/>
+  <dimension ref="A1:BQ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView topLeftCell="AI1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7:AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3468,47 +3841,47 @@
     <col min="10" max="10" width="13.77734375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="16" width="13.77734375" customWidth="1"/>
-    <col min="17" max="17" width="23.21875" customWidth="1"/>
-    <col min="18" max="18" width="16.77734375" customWidth="1"/>
-    <col min="19" max="19" width="21.77734375" customWidth="1"/>
-    <col min="20" max="20" width="13.77734375" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" customWidth="1"/>
-    <col min="22" max="23" width="13.77734375" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" customWidth="1"/>
-    <col min="25" max="25" width="13.109375" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" customWidth="1"/>
-    <col min="27" max="28" width="14.44140625" customWidth="1"/>
-    <col min="29" max="29" width="13.88671875" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-    <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="34" max="36" width="16.6640625" customWidth="1"/>
-    <col min="37" max="48" width="13.77734375" customWidth="1"/>
-    <col min="49" max="49" width="22.44140625" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" customWidth="1"/>
+    <col min="18" max="18" width="18.77734375" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" customWidth="1"/>
+    <col min="21" max="22" width="13.77734375" customWidth="1"/>
+    <col min="23" max="23" width="15.5546875" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" customWidth="1"/>
+    <col min="26" max="26" width="14.44140625" customWidth="1"/>
+    <col min="27" max="27" width="20" customWidth="1"/>
+    <col min="28" max="28" width="13.88671875" customWidth="1"/>
+    <col min="29" max="29" width="13.109375" customWidth="1"/>
+    <col min="30" max="30" width="12.5546875" customWidth="1"/>
+    <col min="31" max="31" width="13.109375" customWidth="1"/>
+    <col min="32" max="32" width="12" customWidth="1"/>
+    <col min="33" max="35" width="16.6640625" customWidth="1"/>
+    <col min="36" max="47" width="13.77734375" customWidth="1"/>
+    <col min="48" max="48" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="215" t="s">
+    <row r="1" spans="1:69" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="192" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
-      <c r="R1" s="21"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="20"/>
       <c r="S1" s="20"/>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
@@ -3538,20 +3911,19 @@
       <c r="AS1" s="20"/>
       <c r="AT1" s="20"/>
       <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
     </row>
-    <row r="2" spans="1:70" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:69" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53">
         <f>GeneralRemarks!A2</f>
-        <v>41716</v>
-      </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="217"/>
-      <c r="E2" s="217"/>
-      <c r="F2" s="217"/>
-      <c r="G2" s="217"/>
-      <c r="H2" s="217"/>
+        <v>41731</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
       <c r="K2" s="51"/>
@@ -3560,17 +3932,17 @@
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
       <c r="P2" s="51"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="20"/>
       <c r="S2" s="20"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="54">
+      <c r="W2" s="54">
         <f>A2</f>
-        <v>41716</v>
-      </c>
+        <v>41731</v>
+      </c>
+      <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
@@ -3594,126 +3966,127 @@
       <c r="AS2" s="20"/>
       <c r="AT2" s="20"/>
       <c r="AU2" s="20"/>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="73">
+      <c r="AV2" s="73">
         <f>A2</f>
-        <v>41716</v>
+        <v>41731</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="202" t="s">
+    <row r="3" spans="1:69" s="1" customFormat="1" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="168" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="113" t="s">
+      <c r="H3" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="113" t="s">
+      <c r="I3" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="J3" s="113" t="s">
+      <c r="J3" s="112" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="112" t="s">
         <v>175</v>
       </c>
-      <c r="L3" s="113" t="s">
+      <c r="L3" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="M3" s="113" t="s">
+      <c r="M3" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="N3" s="113" t="s">
+      <c r="N3" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="O3" s="113" t="s">
+      <c r="O3" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="166" t="s">
+      <c r="P3" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="202" t="s">
+      <c r="Q3" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="X3" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y3" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z3" s="112" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA3" s="112" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="112" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="167" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF3" s="112"/>
+      <c r="AG3" s="112"/>
+      <c r="AH3" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI3" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ3" s="112"/>
+      <c r="AK3" s="112"/>
+      <c r="AL3" s="112"/>
+      <c r="AM3" s="112"/>
+      <c r="AN3" s="112" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO3" s="112"/>
+      <c r="AP3" s="112"/>
+      <c r="AQ3" s="112"/>
+      <c r="AR3" s="112"/>
+      <c r="AS3" s="112"/>
+      <c r="AT3" s="112"/>
+      <c r="AU3" s="112"/>
+      <c r="AV3" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="172" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" s="113" t="s">
-        <v>133</v>
-      </c>
-      <c r="T3" s="113" t="s">
-        <v>89</v>
-      </c>
-      <c r="U3" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="V3" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="W3" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="X3" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="113" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z3" s="113" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA3" s="113"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="113"/>
-      <c r="AD3" s="113" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="236" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG3" s="113"/>
-      <c r="AH3" s="113"/>
-      <c r="AI3" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ3" s="114" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK3" s="113"/>
-      <c r="AL3" s="113"/>
-      <c r="AM3" s="113"/>
-      <c r="AN3" s="113"/>
-      <c r="AO3" s="113" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP3" s="113"/>
-      <c r="AQ3" s="113"/>
-      <c r="AR3" s="113"/>
-      <c r="AS3" s="113"/>
-      <c r="AT3" s="113"/>
-      <c r="AU3" s="113"/>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="202" t="s">
-        <v>57</v>
-      </c>
+      <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
@@ -3734,184 +4107,181 @@
       <c r="BO3" s="2"/>
       <c r="BP3" s="2"/>
       <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
     </row>
-    <row r="4" spans="1:70" s="1" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="203" t="s">
+    <row r="4" spans="1:69" s="1" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="116" t="str">
+      <c r="B4" s="115" t="str">
         <f>B7</f>
         <v>DMI</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="118" t="s">
+      <c r="H4" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="118" t="s">
+      <c r="I4" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="117" t="s">
+      <c r="N4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="117" t="s">
+      <c r="O4" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="167" t="s">
+      <c r="P4" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="203" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="173" t="str">
-        <f t="shared" ref="R4:X4" si="0">R7</f>
+      <c r="Q4" s="115" t="str">
+        <f t="shared" ref="Q4:W4" si="0">Q7</f>
         <v>CHMI</v>
       </c>
-      <c r="S4" s="118" t="str">
-        <f>S7</f>
+      <c r="R4" s="115" t="str">
+        <f>R7</f>
         <v>HMS</v>
       </c>
-      <c r="T4" s="118" t="str">
+      <c r="S4" s="115" t="str">
         <f t="shared" si="0"/>
         <v>CNRM</v>
       </c>
-      <c r="U4" s="118" t="str">
+      <c r="T4" s="115" t="str">
         <f t="shared" si="0"/>
         <v>CNRM</v>
       </c>
-      <c r="V4" s="118" t="str">
-        <f t="shared" ref="V4:W4" si="1">V7</f>
+      <c r="U4" s="115" t="str">
+        <f t="shared" ref="U4:V4" si="1">U7</f>
         <v>KNMI</v>
       </c>
-      <c r="W4" s="118" t="str">
+      <c r="V4" s="115" t="str">
         <f t="shared" si="1"/>
         <v>KNMI</v>
       </c>
-      <c r="X4" s="118" t="str">
+      <c r="W4" s="115" t="str">
         <f t="shared" si="0"/>
         <v>KNMI</v>
       </c>
-      <c r="Y4" s="118" t="str">
-        <f t="shared" ref="Y4:AI4" si="2">Y7</f>
+      <c r="X4" s="115" t="str">
+        <f t="shared" ref="X4:AH4" si="2">X7</f>
         <v>UQAM</v>
       </c>
-      <c r="Z4" s="118" t="str">
+      <c r="Y4" s="115" t="str">
         <f t="shared" si="2"/>
         <v>UCLM</v>
       </c>
-      <c r="AA4" s="118" t="str">
+      <c r="Z4" s="115" t="str">
         <f t="shared" si="2"/>
         <v>ICTP</v>
       </c>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118" t="str">
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115" t="str">
         <f t="shared" si="2"/>
         <v>CUNI</v>
       </c>
-      <c r="AD4" s="118" t="str">
+      <c r="AC4" s="115" t="str">
         <f t="shared" si="2"/>
         <v>DHMZ</v>
       </c>
-      <c r="AE4" s="118" t="str">
+      <c r="AD4" s="115" t="str">
         <f t="shared" si="2"/>
         <v>GISS</v>
       </c>
-      <c r="AF4" s="118" t="str">
+      <c r="AE4" s="115" t="str">
         <f t="shared" si="2"/>
         <v>CCCma</v>
       </c>
-      <c r="AG4" s="118" t="str">
+      <c r="AF4" s="115" t="str">
         <f t="shared" si="2"/>
         <v>CSIR</v>
       </c>
-      <c r="AH4" s="118" t="str">
+      <c r="AG4" s="115" t="str">
         <f t="shared" si="2"/>
         <v>KAUST</v>
       </c>
-      <c r="AI4" s="119" t="str">
+      <c r="AH4" s="116" t="str">
         <f t="shared" si="2"/>
         <v>MOHC</v>
       </c>
-      <c r="AJ4" s="119" t="str">
-        <f t="shared" ref="AJ4" si="3">AJ7</f>
+      <c r="AI4" s="116" t="str">
+        <f t="shared" ref="AI4" si="3">AI7</f>
         <v>MOHC</v>
       </c>
-      <c r="AK4" s="118" t="str">
-        <f>AK7</f>
+      <c r="AJ4" s="115" t="str">
+        <f>AJ7</f>
         <v>MIUB</v>
       </c>
-      <c r="AL4" s="118" t="str">
-        <f t="shared" ref="AL4:AV4" si="4">AL7</f>
+      <c r="AK4" s="115" t="str">
+        <f t="shared" ref="AK4:AU4" si="4">AK7</f>
         <v>BCCR</v>
       </c>
-      <c r="AM4" s="118" t="str">
+      <c r="AL4" s="115" t="str">
         <f t="shared" si="4"/>
         <v>CRP-GL</v>
       </c>
-      <c r="AN4" s="118" t="str">
+      <c r="AM4" s="115" t="str">
         <f t="shared" si="4"/>
         <v>IDL</v>
       </c>
-      <c r="AO4" s="118" t="s">
+      <c r="AN4" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="AP4" s="118" t="str">
+      <c r="AO4" s="115" t="str">
         <f t="shared" si="4"/>
         <v>AUTH-Met</v>
       </c>
-      <c r="AQ4" s="118" t="str">
+      <c r="AP4" s="115" t="str">
         <f t="shared" si="4"/>
         <v>AUTH-LHTEE</v>
       </c>
-      <c r="AR4" s="118" t="str">
+      <c r="AQ4" s="115" t="str">
         <f t="shared" si="4"/>
         <v>NUIM</v>
       </c>
-      <c r="AS4" s="118" t="str">
+      <c r="AR4" s="115" t="str">
         <f t="shared" si="4"/>
         <v>UHOH</v>
       </c>
-      <c r="AT4" s="118" t="str">
+      <c r="AS4" s="115" t="str">
         <f t="shared" si="4"/>
         <v>UM</v>
       </c>
-      <c r="AU4" s="118" t="str">
+      <c r="AT4" s="115" t="str">
         <f t="shared" si="4"/>
         <v>UCAN</v>
       </c>
-      <c r="AV4" s="120" t="str">
+      <c r="AU4" s="115" t="str">
         <f t="shared" si="4"/>
         <v>UCAN</v>
       </c>
-      <c r="AW4" s="203" t="s">
+      <c r="AV4" s="170" t="s">
         <v>41</v>
       </c>
+      <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
@@ -3932,194 +4302,142 @@
       <c r="BO4" s="2"/>
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
     </row>
-    <row r="5" spans="1:70" s="157" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="178" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="H5" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="118" t="s">
-        <v>183</v>
-      </c>
+    <row r="5" spans="1:69" s="136" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="171" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
       <c r="J5" s="118" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="K5" s="118" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="L5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="M5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="N5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="P5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="178" t="s">
-        <v>153</v>
-      </c>
-      <c r="R5" s="173"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="U5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="V5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="W5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="X5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="118"/>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE5" s="118"/>
-      <c r="AF5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG5" s="118"/>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK5" s="118"/>
-      <c r="AL5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM5" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="AN5" s="118"/>
-      <c r="AO5" s="118"/>
-      <c r="AP5" s="118"/>
-      <c r="AQ5" s="118"/>
-      <c r="AR5" s="118"/>
-      <c r="AS5" s="118"/>
-      <c r="AT5" s="118"/>
-      <c r="AU5" s="118"/>
-      <c r="AV5" s="120"/>
-      <c r="AW5" s="178" t="s">
-        <v>153</v>
-      </c>
-      <c r="AX5" s="156"/>
-      <c r="AY5" s="156"/>
-      <c r="AZ5" s="156"/>
-      <c r="BA5" s="156"/>
-      <c r="BB5" s="156"/>
-      <c r="BC5" s="156"/>
-      <c r="BD5" s="156"/>
-      <c r="BE5" s="156"/>
-      <c r="BF5" s="156"/>
-      <c r="BG5" s="156"/>
-      <c r="BH5" s="156"/>
-      <c r="BI5" s="156"/>
-      <c r="BJ5" s="156"/>
-      <c r="BK5" s="156"/>
-      <c r="BL5" s="156"/>
-      <c r="BM5" s="156"/>
-      <c r="BN5" s="156"/>
-      <c r="BO5" s="156"/>
-      <c r="BP5" s="156"/>
-      <c r="BQ5" s="156"/>
-      <c r="BR5" s="156"/>
+        <v>125</v>
+      </c>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="131"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="131"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
+      <c r="AH5" s="132"/>
+      <c r="AI5" s="132"/>
+      <c r="AJ5" s="133"/>
+      <c r="AK5" s="133"/>
+      <c r="AL5" s="134"/>
+      <c r="AM5" s="134"/>
+      <c r="AN5" s="134"/>
+      <c r="AO5" s="131"/>
+      <c r="AP5" s="131"/>
+      <c r="AQ5" s="131"/>
+      <c r="AR5" s="131"/>
+      <c r="AS5" s="131"/>
+      <c r="AT5" s="131"/>
+      <c r="AU5" s="131"/>
+      <c r="AV5" s="171" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW5" s="135"/>
+      <c r="AX5" s="135"/>
+      <c r="AY5" s="135"/>
+      <c r="AZ5" s="135"/>
+      <c r="BA5" s="135"/>
+      <c r="BB5" s="135"/>
+      <c r="BC5" s="135"/>
+      <c r="BD5" s="135"/>
+      <c r="BE5" s="135"/>
+      <c r="BF5" s="135"/>
+      <c r="BG5" s="135"/>
+      <c r="BH5" s="135"/>
+      <c r="BI5" s="135"/>
+      <c r="BJ5" s="135"/>
+      <c r="BK5" s="135"/>
+      <c r="BL5" s="135"/>
+      <c r="BM5" s="135"/>
+      <c r="BN5" s="135"/>
+      <c r="BO5" s="135"/>
+      <c r="BP5" s="135"/>
+      <c r="BQ5" s="135"/>
     </row>
-    <row r="6" spans="1:70" s="1" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="203" t="s">
+    <row r="6" spans="1:69" s="1" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="203" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="115"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="115"/>
+      <c r="AF6" s="115"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="116"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="115"/>
+      <c r="AK6" s="115"/>
+      <c r="AL6" s="115"/>
+      <c r="AM6" s="115"/>
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="115"/>
+      <c r="AP6" s="115"/>
+      <c r="AQ6" s="115"/>
+      <c r="AR6" s="115"/>
+      <c r="AS6" s="115"/>
+      <c r="AT6" s="115"/>
+      <c r="AU6" s="115"/>
+      <c r="AV6" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="R6" s="174"/>
-      <c r="S6" s="118"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="118"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="118"/>
-      <c r="AB6" s="118"/>
-      <c r="AC6" s="118"/>
-      <c r="AD6" s="118"/>
-      <c r="AE6" s="118"/>
-      <c r="AF6" s="118"/>
-      <c r="AG6" s="118"/>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="119"/>
-      <c r="AJ6" s="119"/>
-      <c r="AK6" s="118"/>
-      <c r="AL6" s="118"/>
-      <c r="AM6" s="118"/>
-      <c r="AN6" s="118"/>
-      <c r="AO6" s="118"/>
-      <c r="AP6" s="118"/>
-      <c r="AQ6" s="118"/>
-      <c r="AR6" s="118"/>
-      <c r="AS6" s="118"/>
-      <c r="AT6" s="118"/>
-      <c r="AU6" s="118"/>
-      <c r="AV6" s="120"/>
-      <c r="AW6" s="203" t="s">
-        <v>64</v>
-      </c>
+      <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
@@ -4140,156 +4458,153 @@
       <c r="BO6" s="2"/>
       <c r="BP6" s="2"/>
       <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
     </row>
-    <row r="7" spans="1:70" s="1" customFormat="1" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="178" t="s">
+    <row r="7" spans="1:69" s="1" customFormat="1" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="177" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="159" t="s">
+      <c r="C7" s="177" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="159" t="s">
+      <c r="D7" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="177" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="125" t="s">
+      <c r="G7" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="125" t="s">
+      <c r="H7" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="125" t="s">
+      <c r="I7" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="125" t="s">
+      <c r="J7" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="125" t="s">
+      <c r="K7" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="L7" s="125" t="s">
+      <c r="L7" s="178" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="125" t="s">
+      <c r="M7" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="125" t="s">
+      <c r="N7" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="125" t="s">
+      <c r="O7" s="178" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="169" t="s">
+      <c r="P7" s="178" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="186" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="W7" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="178" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="178" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z7" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA7" s="178" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB7" s="178" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" s="178" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF7" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG7" s="178" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH7" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI7" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ7" s="183" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK7" s="183" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL7" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM7" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN7" s="186" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO7" s="178" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP7" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ7" s="178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR7" s="178" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS7" s="178" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT7" s="178" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU7" s="178" t="s">
+        <v>140</v>
+      </c>
+      <c r="AV7" s="171" t="s">
         <v>187</v>
       </c>
-      <c r="R7" s="175" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="125" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" s="126" t="s">
-        <v>39</v>
-      </c>
-      <c r="V7" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="W7" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="X7" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y7" s="125" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA7" s="125" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB7" s="125" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC7" s="125" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD7" s="125" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE7" s="125" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF7" s="125" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG7" s="125" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH7" s="125" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI7" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ7" s="127" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK7" s="128" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL7" s="128" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM7" s="126" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN7" s="126" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO7" s="126" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP7" s="125" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ7" s="125" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR7" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS7" s="125" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT7" s="125" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU7" s="125" t="s">
-        <v>140</v>
-      </c>
-      <c r="AV7" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW7" s="178" t="s">
-        <v>187</v>
-      </c>
+      <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
@@ -4310,520 +4625,676 @@
       <c r="BO7" s="2"/>
       <c r="BP7" s="2"/>
       <c r="BQ7" s="2"/>
-      <c r="BR7" s="2"/>
     </row>
-    <row r="8" spans="1:70" s="35" customFormat="1" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="203" t="s">
+    <row r="8" spans="1:69" s="121" customFormat="1" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="171" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="179" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="179" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="179" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="180" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="180" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="180" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="180" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="180" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="180" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="180" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" s="180" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="179" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8" s="188" t="s">
+        <v>130</v>
+      </c>
+      <c r="U8" s="188" t="s">
+        <v>148</v>
+      </c>
+      <c r="V8" s="188" t="s">
+        <v>111</v>
+      </c>
+      <c r="W8" s="188" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="180" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y8" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z8" s="180" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA8" s="180" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB8" s="180" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC8" s="180" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD8" s="182" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE8" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="180" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG8" s="180" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH8" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI8" s="179" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ8" s="184" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK8" s="184" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL8" s="187" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM8" s="187" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN8" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO8" s="182" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP8" s="180" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ8" s="182" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR8" s="182" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS8" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT8" s="188" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU8" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV8" s="171" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW8" s="120"/>
+      <c r="AX8" s="120"/>
+      <c r="AY8" s="120"/>
+      <c r="AZ8" s="120"/>
+      <c r="BA8" s="120"/>
+      <c r="BB8" s="120"/>
+      <c r="BC8" s="120"/>
+      <c r="BD8" s="120"/>
+      <c r="BE8" s="120"/>
+      <c r="BF8" s="120"/>
+      <c r="BG8" s="120"/>
+      <c r="BH8" s="120"/>
+      <c r="BI8" s="120"/>
+      <c r="BJ8" s="120"/>
+      <c r="BK8" s="120"/>
+      <c r="BL8" s="120"/>
+      <c r="BM8" s="120"/>
+      <c r="BN8" s="120"/>
+      <c r="BO8" s="120"/>
+      <c r="BP8" s="120"/>
+      <c r="BQ8" s="120"/>
+    </row>
+    <row r="9" spans="1:69" s="35" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="170" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="192"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193" t="s">
+      <c r="B9" s="116"/>
+      <c r="C9" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="193" t="s">
+      <c r="E9" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="193" t="s">
+      <c r="F9" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="193" t="s">
+      <c r="G9" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="193" t="s">
+      <c r="H9" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="I8" s="193" t="s">
+      <c r="I9" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="J8" s="118" t="s">
+      <c r="J9" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="118" t="s">
+      <c r="K9" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="L8" s="118" t="s">
+      <c r="L9" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="M8" s="118" t="s">
+      <c r="M9" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="N8" s="118" t="s">
+      <c r="N9" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="O8" s="118" t="s">
+      <c r="O9" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="P8" s="167" t="s">
+      <c r="P9" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="Q8" s="203" t="s">
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="S9" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="T9" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="U9" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="V9" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="W9" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="X9" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y9" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z9" s="116" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA9" s="116" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="116"/>
+      <c r="AH9" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI9" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ9" s="185"/>
+      <c r="AK9" s="185" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL9" s="185"/>
+      <c r="AM9" s="185"/>
+      <c r="AN9" s="185"/>
+      <c r="AO9" s="116"/>
+      <c r="AP9" s="116"/>
+      <c r="AQ9" s="116"/>
+      <c r="AR9" s="116"/>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="170" t="s">
         <v>168</v>
       </c>
-      <c r="R8" s="173"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118" t="s">
-        <v>192</v>
-      </c>
-      <c r="U8" s="194" t="s">
-        <v>192</v>
-      </c>
-      <c r="V8" s="194" t="s">
-        <v>170</v>
-      </c>
-      <c r="W8" s="194" t="s">
-        <v>170</v>
-      </c>
-      <c r="X8" s="194" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y8" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z8" s="118" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="118"/>
-      <c r="AD8" s="118" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE8" s="118"/>
-      <c r="AF8" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG8" s="118"/>
-      <c r="AH8" s="118"/>
-      <c r="AI8" s="119" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ8" s="119" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK8" s="194"/>
-      <c r="AL8" s="194" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM8" s="194"/>
-      <c r="AN8" s="194"/>
-      <c r="AO8" s="194"/>
-      <c r="AP8" s="118"/>
-      <c r="AQ8" s="118"/>
-      <c r="AR8" s="118"/>
-      <c r="AS8" s="118"/>
-      <c r="AT8" s="118"/>
-      <c r="AU8" s="118"/>
-      <c r="AV8" s="120"/>
-      <c r="AW8" s="203" t="s">
-        <v>168</v>
-      </c>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="72"/>
-      <c r="BJ8" s="72"/>
-      <c r="BK8" s="72"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="72"/>
-      <c r="BN8" s="72"/>
-      <c r="BO8" s="72"/>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="72"/>
-      <c r="BR8" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="72"/>
+      <c r="BK9" s="72"/>
+      <c r="BL9" s="72"/>
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="72"/>
     </row>
-    <row r="9" spans="1:70" s="157" customFormat="1" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="178" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" s="149" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="149" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="149"/>
-      <c r="N9" s="149"/>
-      <c r="O9" s="149"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="178" t="s">
-        <v>126</v>
-      </c>
-      <c r="R9" s="176"/>
-      <c r="S9" s="151"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="150"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="151"/>
-      <c r="Z9" s="151"/>
-      <c r="AA9" s="151"/>
-      <c r="AB9" s="151"/>
-      <c r="AC9" s="151"/>
-      <c r="AD9" s="151"/>
-      <c r="AE9" s="151"/>
-      <c r="AF9" s="151"/>
-      <c r="AG9" s="151"/>
-      <c r="AH9" s="151"/>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="152"/>
-      <c r="AK9" s="153"/>
-      <c r="AL9" s="153"/>
-      <c r="AM9" s="154"/>
-      <c r="AN9" s="154"/>
-      <c r="AO9" s="154"/>
-      <c r="AP9" s="151"/>
-      <c r="AQ9" s="151"/>
-      <c r="AR9" s="151"/>
-      <c r="AS9" s="151"/>
-      <c r="AT9" s="151"/>
-      <c r="AU9" s="151"/>
-      <c r="AV9" s="155"/>
-      <c r="AW9" s="178" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX9" s="156"/>
-      <c r="AY9" s="156"/>
-      <c r="AZ9" s="156"/>
-      <c r="BA9" s="156"/>
-      <c r="BB9" s="156"/>
-      <c r="BC9" s="156"/>
-      <c r="BD9" s="156"/>
-      <c r="BE9" s="156"/>
-      <c r="BF9" s="156"/>
-      <c r="BG9" s="156"/>
-      <c r="BH9" s="156"/>
-      <c r="BI9" s="156"/>
-      <c r="BJ9" s="156"/>
-      <c r="BK9" s="156"/>
-      <c r="BL9" s="156"/>
-      <c r="BM9" s="156"/>
-      <c r="BN9" s="156"/>
-      <c r="BO9" s="156"/>
-      <c r="BP9" s="156"/>
-      <c r="BQ9" s="156"/>
-      <c r="BR9" s="156"/>
+    <row r="10" spans="1:69" s="1" customFormat="1" ht="101.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="181" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189" t="s">
+        <v>217</v>
+      </c>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189" t="s">
+        <v>216</v>
+      </c>
+      <c r="O10" s="189"/>
+      <c r="P10" s="181" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="181" t="s">
+        <v>213</v>
+      </c>
+      <c r="V10" s="181" t="s">
+        <v>212</v>
+      </c>
+      <c r="W10" s="181" t="s">
+        <v>214</v>
+      </c>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO10" s="116"/>
+      <c r="AP10" s="116"/>
+      <c r="AQ10" s="116"/>
+      <c r="AR10" s="116"/>
+      <c r="AS10" s="116"/>
+      <c r="AT10" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU10" s="116"/>
+      <c r="AV10" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
     </row>
-    <row r="10" spans="1:70" s="140" customFormat="1" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="179" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="160" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="161" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="132" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="132" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="132" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="K10" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="N10" s="132" t="s">
-        <v>116</v>
-      </c>
-      <c r="O10" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="P10" s="171" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="179" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="177" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10" s="132" t="s">
-        <v>26</v>
-      </c>
-      <c r="U10" s="134" t="s">
-        <v>130</v>
-      </c>
-      <c r="V10" s="134" t="s">
-        <v>148</v>
-      </c>
-      <c r="W10" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="X10" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y10" s="132" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z10" s="132" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA10" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB10" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC10" s="132" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD10" s="132" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE10" s="133" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF10" s="132" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG10" s="132" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH10" s="132" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI10" s="135" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ10" s="135" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK10" s="136" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL10" s="136" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM10" s="137" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN10" s="137" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO10" s="137" t="s">
-        <v>139</v>
-      </c>
-      <c r="AP10" s="133" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ10" s="132" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR10" s="133" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS10" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT10" s="133" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU10" s="134" t="s">
-        <v>141</v>
-      </c>
-      <c r="AV10" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW10" s="179" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX10" s="139"/>
-      <c r="AY10" s="139"/>
-      <c r="AZ10" s="139"/>
-      <c r="BA10" s="139"/>
-      <c r="BB10" s="139"/>
-      <c r="BC10" s="139"/>
-      <c r="BD10" s="139"/>
-      <c r="BE10" s="139"/>
-      <c r="BF10" s="139"/>
-      <c r="BG10" s="139"/>
-      <c r="BH10" s="139"/>
-      <c r="BI10" s="139"/>
-      <c r="BJ10" s="139"/>
-      <c r="BK10" s="139"/>
-      <c r="BL10" s="139"/>
-      <c r="BM10" s="139"/>
-      <c r="BN10" s="139"/>
-      <c r="BO10" s="139"/>
-      <c r="BP10" s="139"/>
-      <c r="BQ10" s="139"/>
-      <c r="BR10" s="139"/>
+    <row r="11" spans="1:69" s="136" customFormat="1" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="172" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="I11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="N11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="O11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="P11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="S11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="T11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="U11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="V11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="W11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="X11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL11" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="116"/>
+      <c r="AQ11" s="116"/>
+      <c r="AR11" s="116"/>
+      <c r="AS11" s="116"/>
+      <c r="AT11" s="116" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU11" s="116"/>
+      <c r="AV11" s="172" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW11" s="135"/>
+      <c r="AX11" s="135"/>
+      <c r="AY11" s="135"/>
+      <c r="AZ11" s="135"/>
+      <c r="BA11" s="135"/>
+      <c r="BB11" s="135"/>
+      <c r="BC11" s="135"/>
+      <c r="BD11" s="135"/>
+      <c r="BE11" s="135"/>
+      <c r="BF11" s="135"/>
+      <c r="BG11" s="135"/>
+      <c r="BH11" s="135"/>
+      <c r="BI11" s="135"/>
+      <c r="BJ11" s="135"/>
+      <c r="BK11" s="135"/>
+      <c r="BL11" s="135"/>
+      <c r="BM11" s="135"/>
+      <c r="BN11" s="135"/>
+      <c r="BO11" s="135"/>
+      <c r="BP11" s="135"/>
+      <c r="BQ11" s="135"/>
     </row>
-    <row r="11" spans="1:70" s="26" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="216" t="s">
+    <row r="12" spans="1:69" s="26" customFormat="1" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="216"/>
-      <c r="E11" s="216"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="146"/>
-      <c r="U11" s="146"/>
-      <c r="V11" s="146"/>
-      <c r="W11" s="146"/>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="146"/>
-      <c r="AA11" s="146"/>
-      <c r="AB11" s="195"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="146"/>
-      <c r="AE11" s="146"/>
-      <c r="AF11" s="146"/>
-      <c r="AG11" s="146"/>
-      <c r="AH11" s="146"/>
-      <c r="AI11" s="146"/>
-      <c r="AJ11" s="146"/>
-      <c r="AK11" s="146"/>
-      <c r="AL11" s="146"/>
-      <c r="AM11" s="146"/>
-      <c r="AN11" s="146"/>
-      <c r="AO11" s="146"/>
-      <c r="AP11" s="146"/>
-      <c r="AQ11" s="146"/>
-      <c r="AR11" s="146"/>
-      <c r="AS11" s="146"/>
-      <c r="AT11" s="146"/>
-      <c r="AU11" s="146"/>
-      <c r="AV11" s="146"/>
+      <c r="B12" s="193"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="127"/>
+      <c r="AF12" s="127"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="127"/>
+      <c r="AI12" s="127"/>
+      <c r="AJ12" s="127"/>
+      <c r="AK12" s="127"/>
+      <c r="AL12" s="127"/>
+      <c r="AM12" s="127"/>
+      <c r="AN12" s="127"/>
+      <c r="AO12" s="127"/>
+      <c r="AP12" s="127"/>
+      <c r="AQ12" s="127"/>
+      <c r="AR12" s="127"/>
+      <c r="AS12" s="127"/>
+      <c r="AT12" s="127"/>
+      <c r="AU12" s="127"/>
     </row>
-    <row r="12" spans="1:70" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="216" t="s">
+    <row r="13" spans="1:69" s="26" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="193" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="216"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="216"/>
-      <c r="E12" s="216"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="182"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="182"/>
-      <c r="R12" s="182"/>
-      <c r="S12" s="182"/>
-      <c r="T12" s="182"/>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="182"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="182"/>
-      <c r="AI12" s="182"/>
-      <c r="AJ12" s="182"/>
-      <c r="AK12" s="182"/>
-      <c r="AL12" s="182"/>
-      <c r="AM12" s="182"/>
-      <c r="AN12" s="182"/>
-      <c r="AO12" s="182"/>
-      <c r="AP12" s="182"/>
-      <c r="AQ12" s="182"/>
-      <c r="AR12" s="182"/>
-      <c r="AS12" s="182"/>
-      <c r="AT12" s="182"/>
-      <c r="AU12" s="182"/>
-      <c r="AV12" s="182"/>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="141"/>
+      <c r="AG13" s="141"/>
+      <c r="AH13" s="141"/>
+      <c r="AI13" s="141"/>
+      <c r="AJ13" s="141"/>
+      <c r="AK13" s="141"/>
+      <c r="AL13" s="141"/>
+      <c r="AM13" s="141"/>
+      <c r="AN13" s="141"/>
+      <c r="AO13" s="141"/>
+      <c r="AP13" s="141"/>
+      <c r="AQ13" s="141"/>
+      <c r="AR13" s="141"/>
+      <c r="AS13" s="141"/>
+      <c r="AT13" s="141"/>
+      <c r="AU13" s="141"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="AW13" s="72"/>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="AV14" s="72"/>
     </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N21" s="141"/>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="122"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D24" s="66"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A12:H12"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
   </mergeCells>
+  <conditionalFormatting sqref="B7:AU11">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AF3" r:id="rId1" display="mailto:John.Scinocca@ec.gc.ca"/>
+    <hyperlink ref="AE3" r:id="rId1" display="mailto:John.Scinocca@ec.gc.ca"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <colBreaks count="2" manualBreakCount="2">
-    <brk id="16" max="8" man="1"/>
-    <brk id="34" max="8" man="1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="33" max="8" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
@@ -4833,7 +5304,7 @@
   <dimension ref="A1:EN39"/>
   <sheetViews>
     <sheetView topLeftCell="AH1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+      <selection activeCell="AH22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4880,25 +5351,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:144" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="190" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="213"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
       <c r="R1" s="21"/>
       <c r="S1" s="20"/>
       <c r="T1" s="20"/>
@@ -4936,7 +5407,7 @@
     <row r="2" spans="1:144" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53">
         <f>GeneralRemarks!A2</f>
-        <v>41716</v>
+        <v>41731</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -4962,7 +5433,7 @@
       <c r="W2" s="20"/>
       <c r="X2" s="54">
         <f>GeneralRemarks!A2</f>
-        <v>41716</v>
+        <v>41731</v>
       </c>
       <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
@@ -4992,7 +5463,7 @@
       <c r="AX2" s="20"/>
       <c r="AZ2" s="73">
         <f>A2</f>
-        <v>41716</v>
+        <v>41731</v>
       </c>
     </row>
     <row r="3" spans="1:144" s="1" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5084,74 +5555,75 @@
         <v>Michael/
 Grigory</v>
       </c>
-      <c r="S3" s="142" t="str">
-        <f>AllEntries!R3</f>
+      <c r="S3" s="123" t="str">
+        <f>AllEntries!Q3</f>
         <v>Petr Skalak
 skalak@chmi.cz</v>
       </c>
-      <c r="T3" s="201" t="str">
-        <f>AllEntries!S3</f>
+      <c r="T3" s="157" t="str">
+        <f>AllEntries!R3</f>
         <v>Gabriella Szepszo szepszo.g@met.hu
 Ilona Krüzselyi
 kruzselyi.i@met.hu</v>
       </c>
       <c r="U3" s="29" t="str">
-        <f>AllEntries!T3</f>
+        <f>AllEntries!S3</f>
         <v>samuel.somot
 @meteo.fr</v>
       </c>
       <c r="V3" s="29" t="str">
-        <f>AllEntries!U3</f>
+        <f>AllEntries!T3</f>
         <v>Michel.DEQUE
 @meteo.fr</v>
       </c>
       <c r="W3" s="29" t="str">
+        <f>AllEntries!U3</f>
+        <v>Erik van Meijgaard 
+vanmeijg@knmi.nl</v>
+      </c>
+      <c r="X3" s="29" t="str">
         <f>AllEntries!V3</f>
         <v>Erik van Meijgaard 
 vanmeijg@knmi.nl</v>
       </c>
-      <c r="X3" s="29" t="str">
+      <c r="Y3" s="29" t="str">
         <f>AllEntries!W3</f>
         <v>Erik van Meijgaard 
 vanmeijg@knmi.nl</v>
       </c>
-      <c r="Y3" s="29" t="str">
+      <c r="Z3" s="29" t="str">
         <f>AllEntries!X3</f>
-        <v>Erik van Meijgaard 
-vanmeijg@knmi.nl</v>
-      </c>
-      <c r="Z3" s="29" t="str">
-        <f>AllEntries!Y3</f>
         <v>Winger.Katja
 @uqam.ca</v>
       </c>
       <c r="AA3" s="29" t="str">
+        <f>AllEntries!Y3</f>
+        <v>marta.dominguez@uclm.es; miguel.gaertner@uclm.es</v>
+      </c>
+      <c r="AB3" s="29" t="str">
         <f>AllEntries!Z3</f>
-        <v>marta.dominguez@uclm.es; miguel.gaertner@uclm.es</v>
-      </c>
-      <c r="AB3" s="29">
+        <v>Erika Coppola coppolae@ictp.it</v>
+      </c>
+      <c r="AC3" s="29" t="str">
         <f>AllEntries!AA3</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="29">
+        <v>Sandro Calmanti sandro.calmanti
+@enea.it</v>
+      </c>
+      <c r="AD3" s="29">
         <f>AllEntries!AB3</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="29">
+      <c r="AE3" s="29" t="str">
         <f>AllEntries!AC3</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="29" t="str">
-        <f>AllEntries!AD3</f>
         <v>ivan.guettler @gmail.com
 Cedo Brankovic</v>
       </c>
       <c r="AF3" s="29">
+        <f>AllEntries!AD3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="27" t="str">
         <f>AllEntries!AE3</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="27" t="str">
-        <f>AllEntries!AF3</f>
         <v>John.Scinocca
 @ec.gc.ca</v>
       </c>
@@ -5160,61 +5632,61 @@
         <v>Contact</v>
       </c>
       <c r="AI3" s="27">
+        <f>AllEntries!AF3</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="29">
         <f>AllEntries!AG3</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="29">
+      <c r="AK3" s="55" t="str">
         <f>AllEntries!AH3</f>
-        <v>0</v>
-      </c>
-      <c r="AK3" s="55" t="str">
+        <v>carlo.buontempo
+@metoffice.gov.uk</v>
+      </c>
+      <c r="AL3" s="55" t="str">
         <f>AllEntries!AI3</f>
         <v>carlo.buontempo
 @metoffice.gov.uk</v>
       </c>
-      <c r="AL3" s="55" t="str">
+      <c r="AM3" s="29">
         <f>AllEntries!AJ3</f>
-        <v>carlo.buontempo
-@metoffice.gov.uk</v>
-      </c>
-      <c r="AM3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="29">
         <f>AllEntries!AK3</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="29">
+      <c r="AO3" s="29">
         <f>AllEntries!AL3</f>
         <v>0</v>
       </c>
-      <c r="AO3" s="29">
+      <c r="AP3" s="29">
         <f>AllEntries!AM3</f>
         <v>0</v>
       </c>
-      <c r="AP3" s="29">
+      <c r="AQ3" s="29" t="str">
         <f>AllEntries!AN3</f>
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="29" t="str">
+        <v>robert.vautard@lsce.ipsl.fr</v>
+      </c>
+      <c r="AR3" s="29">
         <f>AllEntries!AO3</f>
-        <v>robert.vautard@lsce.ipsl.fr</v>
-      </c>
-      <c r="AR3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="29">
         <f>AllEntries!AP3</f>
         <v>0</v>
       </c>
-      <c r="AS3" s="29">
+      <c r="AT3" s="29">
         <f>AllEntries!AQ3</f>
         <v>0</v>
       </c>
-      <c r="AT3" s="29">
+      <c r="AU3" s="29">
         <f>AllEntries!AR3</f>
         <v>0</v>
       </c>
-      <c r="AU3" s="29">
+      <c r="AV3" s="29">
         <f>AllEntries!AS3</f>
-        <v>0</v>
-      </c>
-      <c r="AV3" s="29">
-        <f>AllEntries!AT3</f>
         <v>0</v>
       </c>
       <c r="AW3" s="29" t="e">
@@ -5222,11 +5694,11 @@
         <v>#REF!</v>
       </c>
       <c r="AX3" s="41">
+        <f>AllEntries!AT3</f>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="27">
         <f>AllEntries!AU3</f>
-        <v>0</v>
-      </c>
-      <c r="AY3" s="27">
-        <f>AllEntries!AV3</f>
         <v>0</v>
       </c>
       <c r="AZ3" s="81"/>
@@ -5399,63 +5871,63 @@
         <v>SMHI</v>
       </c>
       <c r="S4" s="35" t="str">
+        <f>AllEntries!Q4</f>
+        <v>CHMI</v>
+      </c>
+      <c r="T4" s="35" t="str">
         <f>AllEntries!R4</f>
-        <v>CHMI</v>
-      </c>
-      <c r="T4" s="35" t="str">
+        <v>HMS</v>
+      </c>
+      <c r="U4" s="35" t="str">
         <f>AllEntries!S4</f>
-        <v>HMS</v>
-      </c>
-      <c r="U4" s="35" t="str">
+        <v>CNRM</v>
+      </c>
+      <c r="V4" s="35" t="str">
         <f>AllEntries!T4</f>
         <v>CNRM</v>
       </c>
-      <c r="V4" s="35" t="str">
+      <c r="W4" s="35" t="str">
         <f>AllEntries!U4</f>
-        <v>CNRM</v>
-      </c>
-      <c r="W4" s="35" t="str">
+        <v>KNMI</v>
+      </c>
+      <c r="X4" s="35" t="str">
         <f>AllEntries!V4</f>
         <v>KNMI</v>
       </c>
-      <c r="X4" s="35" t="str">
+      <c r="Y4" s="35" t="str">
         <f>AllEntries!W4</f>
         <v>KNMI</v>
       </c>
-      <c r="Y4" s="35" t="str">
+      <c r="Z4" s="35" t="str">
         <f>AllEntries!X4</f>
-        <v>KNMI</v>
-      </c>
-      <c r="Z4" s="35" t="str">
+        <v>UQAM</v>
+      </c>
+      <c r="AA4" s="35" t="str">
         <f>AllEntries!Y4</f>
-        <v>UQAM</v>
-      </c>
-      <c r="AA4" s="35" t="str">
+        <v>UCLM</v>
+      </c>
+      <c r="AB4" s="35" t="str">
         <f>AllEntries!Z4</f>
-        <v>UCLM</v>
-      </c>
-      <c r="AB4" s="35" t="str">
+        <v>ICTP</v>
+      </c>
+      <c r="AC4" s="35">
         <f>AllEntries!AA4</f>
-        <v>ICTP</v>
-      </c>
-      <c r="AC4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="35" t="str">
         <f>AllEntries!AB4</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="35" t="str">
+        <v>CUNI</v>
+      </c>
+      <c r="AE4" s="35" t="str">
         <f>AllEntries!AC4</f>
-        <v>CUNI</v>
-      </c>
-      <c r="AE4" s="35" t="str">
+        <v>DHMZ</v>
+      </c>
+      <c r="AF4" s="35" t="str">
         <f>AllEntries!AD4</f>
-        <v>DHMZ</v>
-      </c>
-      <c r="AF4" s="35" t="str">
+        <v>GISS</v>
+      </c>
+      <c r="AG4" s="33" t="str">
         <f>AllEntries!AE4</f>
-        <v>GISS</v>
-      </c>
-      <c r="AG4" s="33" t="str">
-        <f>AllEntries!AF4</f>
         <v>CCCma</v>
       </c>
       <c r="AH4" s="75" t="str">
@@ -5463,59 +5935,59 @@
         <v>Data providing  center</v>
       </c>
       <c r="AI4" s="33" t="str">
+        <f>AllEntries!AF4</f>
+        <v>CSIR</v>
+      </c>
+      <c r="AJ4" s="35" t="str">
         <f>AllEntries!AG4</f>
-        <v>CSIR</v>
-      </c>
-      <c r="AJ4" s="35" t="str">
+        <v>KAUST</v>
+      </c>
+      <c r="AK4" s="56" t="str">
         <f>AllEntries!AH4</f>
-        <v>KAUST</v>
-      </c>
-      <c r="AK4" s="56" t="str">
+        <v>MOHC</v>
+      </c>
+      <c r="AL4" s="56" t="str">
         <f>AllEntries!AI4</f>
         <v>MOHC</v>
       </c>
-      <c r="AL4" s="56" t="str">
+      <c r="AM4" s="35" t="str">
         <f>AllEntries!AJ4</f>
-        <v>MOHC</v>
-      </c>
-      <c r="AM4" s="35" t="str">
+        <v>MIUB</v>
+      </c>
+      <c r="AN4" s="35" t="str">
         <f>AllEntries!AK4</f>
-        <v>MIUB</v>
-      </c>
-      <c r="AN4" s="35" t="str">
+        <v>BCCR</v>
+      </c>
+      <c r="AO4" s="35" t="str">
         <f>AllEntries!AL4</f>
-        <v>BCCR</v>
-      </c>
-      <c r="AO4" s="35" t="str">
+        <v>CRP-GL</v>
+      </c>
+      <c r="AP4" s="35" t="str">
         <f>AllEntries!AM4</f>
-        <v>CRP-GL</v>
-      </c>
-      <c r="AP4" s="35" t="str">
+        <v>IDL</v>
+      </c>
+      <c r="AQ4" s="35" t="str">
         <f>AllEntries!AN4</f>
-        <v>IDL</v>
-      </c>
-      <c r="AQ4" s="35" t="str">
+        <v>IPSL/INERIS</v>
+      </c>
+      <c r="AR4" s="35" t="str">
         <f>AllEntries!AO4</f>
-        <v>IPSL/INERIS</v>
-      </c>
-      <c r="AR4" s="35" t="str">
+        <v>AUTH-Met</v>
+      </c>
+      <c r="AS4" s="35" t="str">
         <f>AllEntries!AP4</f>
-        <v>AUTH-Met</v>
-      </c>
-      <c r="AS4" s="35" t="str">
+        <v>AUTH-LHTEE</v>
+      </c>
+      <c r="AT4" s="35" t="str">
         <f>AllEntries!AQ4</f>
-        <v>AUTH-LHTEE</v>
-      </c>
-      <c r="AT4" s="35" t="str">
+        <v>NUIM</v>
+      </c>
+      <c r="AU4" s="35" t="str">
         <f>AllEntries!AR4</f>
-        <v>NUIM</v>
-      </c>
-      <c r="AU4" s="35" t="str">
+        <v>UHOH</v>
+      </c>
+      <c r="AV4" s="35" t="str">
         <f>AllEntries!AS4</f>
-        <v>UHOH</v>
-      </c>
-      <c r="AV4" s="35" t="str">
-        <f>AllEntries!AT4</f>
         <v>UM</v>
       </c>
       <c r="AW4" s="35" t="e">
@@ -5523,14 +5995,14 @@
         <v>#REF!</v>
       </c>
       <c r="AX4" s="42" t="str">
+        <f>AllEntries!AT4</f>
+        <v>UCAN</v>
+      </c>
+      <c r="AY4" s="33" t="str">
         <f>AllEntries!AU4</f>
         <v>UCAN</v>
       </c>
-      <c r="AY4" s="33" t="str">
-        <f>AllEntries!AV4</f>
-        <v>UCAN</v>
-      </c>
-      <c r="AZ4" s="220" t="s">
+      <c r="AZ4" s="197" t="s">
         <v>16</v>
       </c>
       <c r="BA4" s="75" t="s">
@@ -5702,63 +6174,63 @@
         <v>0</v>
       </c>
       <c r="S5" s="70">
+        <f>AllEntries!Q6</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="70">
         <f>AllEntries!R6</f>
         <v>0</v>
       </c>
-      <c r="T5" s="70">
+      <c r="U5" s="70">
         <f>AllEntries!S6</f>
         <v>0</v>
       </c>
-      <c r="U5" s="70">
+      <c r="V5" s="70">
         <f>AllEntries!T6</f>
         <v>0</v>
       </c>
-      <c r="V5" s="70">
+      <c r="W5" s="70">
         <f>AllEntries!U6</f>
         <v>0</v>
       </c>
-      <c r="W5" s="70">
+      <c r="X5" s="70">
         <f>AllEntries!V6</f>
         <v>0</v>
       </c>
-      <c r="X5" s="70">
+      <c r="Y5" s="70">
         <f>AllEntries!W6</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="70">
+      <c r="Z5" s="35">
         <f>AllEntries!X6</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="AA5" s="35">
         <f>AllEntries!Y6</f>
         <v>0</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AB5" s="35">
         <f>AllEntries!Z6</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AC5" s="35">
         <f>AllEntries!AA6</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AD5" s="35">
         <f>AllEntries!AB6</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="35">
+      <c r="AE5" s="35">
         <f>AllEntries!AC6</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AF5" s="35">
         <f>AllEntries!AD6</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="35">
+      <c r="AG5" s="33">
         <f>AllEntries!AE6</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="33">
-        <f>AllEntries!AF6</f>
         <v>0</v>
       </c>
       <c r="AH5" s="75" t="str">
@@ -5766,59 +6238,59 @@
         <v>URL, path etc. to data**</v>
       </c>
       <c r="AI5" s="33">
+        <f>AllEntries!AF6</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="35">
         <f>AllEntries!AG6</f>
         <v>0</v>
       </c>
-      <c r="AJ5" s="35">
+      <c r="AK5" s="56">
         <f>AllEntries!AH6</f>
         <v>0</v>
       </c>
-      <c r="AK5" s="56">
+      <c r="AL5" s="56">
         <f>AllEntries!AI6</f>
         <v>0</v>
       </c>
-      <c r="AL5" s="56">
+      <c r="AM5" s="35">
         <f>AllEntries!AJ6</f>
         <v>0</v>
       </c>
-      <c r="AM5" s="35">
+      <c r="AN5" s="35">
         <f>AllEntries!AK6</f>
         <v>0</v>
       </c>
-      <c r="AN5" s="35">
+      <c r="AO5" s="35">
         <f>AllEntries!AL6</f>
         <v>0</v>
       </c>
-      <c r="AO5" s="35">
+      <c r="AP5" s="35">
         <f>AllEntries!AM6</f>
         <v>0</v>
       </c>
-      <c r="AP5" s="35">
+      <c r="AQ5" s="35">
         <f>AllEntries!AN6</f>
         <v>0</v>
       </c>
-      <c r="AQ5" s="35">
+      <c r="AR5" s="35">
         <f>AllEntries!AO6</f>
         <v>0</v>
       </c>
-      <c r="AR5" s="35">
+      <c r="AS5" s="35">
         <f>AllEntries!AP6</f>
         <v>0</v>
       </c>
-      <c r="AS5" s="35">
+      <c r="AT5" s="35">
         <f>AllEntries!AQ6</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="35">
+      <c r="AU5" s="35">
         <f>AllEntries!AR6</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="35">
+      <c r="AV5" s="35">
         <f>AllEntries!AS6</f>
-        <v>0</v>
-      </c>
-      <c r="AV5" s="35">
-        <f>AllEntries!AT6</f>
         <v>0</v>
       </c>
       <c r="AW5" s="35" t="e">
@@ -5826,14 +6298,14 @@
         <v>#REF!</v>
       </c>
       <c r="AX5" s="42">
+        <f>AllEntries!AT6</f>
+        <v>0</v>
+      </c>
+      <c r="AY5" s="33">
         <f>AllEntries!AU6</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="33">
-        <f>AllEntries!AV6</f>
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="221"/>
+      <c r="AZ5" s="198"/>
       <c r="BA5" s="75"/>
       <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
@@ -5929,67 +6401,67 @@
     </row>
     <row r="6" spans="1:144" s="1" customFormat="1" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="76" t="str">
-        <f>AllEntries!A10</f>
+        <f>AllEntries!A8</f>
         <v xml:space="preserve">RCM name </v>
       </c>
       <c r="B6" s="22" t="str">
-        <f>AllEntries!B10</f>
+        <f>AllEntries!B8</f>
         <v>HIRHAM5</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>AllEntries!C10</f>
+        <f>AllEntries!C8</f>
         <v>HIRHAM5</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f>AllEntries!D10</f>
+        <f>AllEntries!D8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f>AllEntries!E10</f>
+        <f>AllEntries!E8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="F6" s="23" t="str">
-        <f>AllEntries!F10</f>
+        <f>AllEntries!F8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="G6" s="24" t="str">
-        <f>AllEntries!G10</f>
+        <f>AllEntries!G8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="H6" s="24" t="str">
-        <f>AllEntries!H10</f>
+        <f>AllEntries!H8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="I6" s="24" t="str">
-        <f>AllEntries!I10</f>
+        <f>AllEntries!I8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="J6" s="24" t="str">
-        <f>AllEntries!J10</f>
+        <f>AllEntries!J8</f>
         <v>REMO2009</v>
       </c>
       <c r="K6" s="24" t="str">
-        <f>AllEntries!K10</f>
+        <f>AllEntries!K8</f>
         <v>REMO2009</v>
       </c>
       <c r="L6" s="24" t="str">
-        <f>AllEntries!L10</f>
+        <f>AllEntries!L8</f>
         <v>REMO2009</v>
       </c>
       <c r="M6" s="76" t="str">
-        <f>AllEntries!A10</f>
+        <f>AllEntries!A8</f>
         <v xml:space="preserve">RCM name </v>
       </c>
       <c r="N6" s="46" t="str">
-        <f>AllEntries!M10</f>
+        <f>AllEntries!M8</f>
         <v>RCAO-SN</v>
       </c>
       <c r="O6" s="25" t="str">
-        <f>AllEntries!N10</f>
+        <f>AllEntries!N8</f>
         <v>RCA4-SN</v>
       </c>
       <c r="P6" s="25" t="str">
-        <f>AllEntries!O10</f>
+        <f>AllEntries!O8</f>
         <v>RCAO</v>
       </c>
       <c r="Q6" s="25" t="e">
@@ -5997,127 +6469,127 @@
         <v>#REF!</v>
       </c>
       <c r="R6" s="25" t="str">
-        <f>AllEntries!P10</f>
+        <f>AllEntries!P8</f>
         <v>RCA4</v>
       </c>
       <c r="S6" s="24" t="str">
-        <f>AllEntries!R10</f>
+        <f>AllEntries!Q8</f>
         <v>ALADIN52</v>
       </c>
       <c r="T6" s="24" t="str">
-        <f>AllEntries!S10</f>
+        <f>AllEntries!R8</f>
         <v>ALADIN52</v>
       </c>
       <c r="U6" s="24" t="str">
-        <f>AllEntries!T10</f>
+        <f>AllEntries!S8</f>
         <v>ALADIN52</v>
       </c>
       <c r="V6" s="37" t="str">
-        <f>AllEntries!U10</f>
+        <f>AllEntries!T8</f>
         <v>ARPEGE52</v>
       </c>
       <c r="W6" s="37" t="str">
-        <f>AllEntries!V10</f>
+        <f>AllEntries!U8</f>
         <v>RACMO22E</v>
       </c>
       <c r="X6" s="37" t="str">
-        <f>AllEntries!W10</f>
+        <f>AllEntries!V8</f>
         <v>RACMO21P</v>
       </c>
       <c r="Y6" s="37" t="str">
-        <f>AllEntries!X10</f>
+        <f>AllEntries!W8</f>
         <v>RACMO22T</v>
       </c>
       <c r="Z6" s="24" t="str">
-        <f>AllEntries!Y10</f>
+        <f>AllEntries!X8</f>
         <v>CRCM5</v>
       </c>
       <c r="AA6" s="24" t="str">
-        <f>AllEntries!Z10</f>
+        <f>AllEntries!Y8</f>
         <v>PROMES</v>
       </c>
       <c r="AB6" s="24" t="str">
-        <f>AllEntries!AA10</f>
+        <f>AllEntries!Z8</f>
         <v>RegCM4-3</v>
       </c>
       <c r="AC6" s="24" t="str">
-        <f>AllEntries!AB10</f>
+        <f>AllEntries!AA8</f>
         <v>RegCM4-3</v>
       </c>
       <c r="AD6" s="24" t="str">
-        <f>AllEntries!AC10</f>
+        <f>AllEntries!AB8</f>
         <v>RegCM4-2</v>
       </c>
       <c r="AE6" s="24" t="str">
-        <f>AllEntries!AD10</f>
+        <f>AllEntries!AC8</f>
         <v>RegCM4-2</v>
       </c>
       <c r="AF6" s="25" t="str">
-        <f>AllEntries!AE10</f>
+        <f>AllEntries!AD8</f>
         <v>RM3</v>
       </c>
-      <c r="AG6" s="143" t="str">
-        <f>AllEntries!AF10</f>
+      <c r="AG6" s="124" t="str">
+        <f>AllEntries!AE8</f>
         <v>CanRCM4</v>
       </c>
       <c r="AH6" s="76" t="str">
-        <f>AllEntries!A10</f>
+        <f>AllEntries!A8</f>
         <v xml:space="preserve">RCM name </v>
       </c>
-      <c r="AI6" s="143" t="str">
-        <f>AllEntries!AG10</f>
+      <c r="AI6" s="124" t="str">
+        <f>AllEntries!AF8</f>
         <v>CCAM</v>
       </c>
       <c r="AJ6" s="24" t="str">
-        <f>AllEntries!AH10</f>
+        <f>AllEntries!AG8</f>
         <v>GFDL</v>
       </c>
       <c r="AK6" s="57" t="str">
-        <f>AllEntries!AI10</f>
+        <f>AllEntries!AH8</f>
         <v>HadGEM3-RA</v>
       </c>
       <c r="AL6" s="57" t="str">
-        <f>AllEntries!AJ10</f>
+        <f>AllEntries!AI8</f>
         <v>HadRM3P</v>
       </c>
       <c r="AM6" s="38" t="str">
-        <f>AllEntries!AK10</f>
+        <f>AllEntries!AJ8</f>
         <v>WRF331A</v>
       </c>
       <c r="AN6" s="38" t="str">
-        <f>AllEntries!AL10</f>
+        <f>AllEntries!AK8</f>
         <v>WRF331C</v>
       </c>
       <c r="AO6" s="39" t="str">
-        <f>AllEntries!AM10</f>
+        <f>AllEntries!AL8</f>
         <v>WRF331A</v>
       </c>
       <c r="AP6" s="39" t="str">
-        <f>AllEntries!AN10</f>
+        <f>AllEntries!AM8</f>
         <v>WRF331D</v>
       </c>
       <c r="AQ6" s="39" t="str">
-        <f>AllEntries!AO10</f>
+        <f>AllEntries!AN8</f>
         <v>WRF331F</v>
       </c>
       <c r="AR6" s="25" t="str">
-        <f>AllEntries!AP10</f>
+        <f>AllEntries!AO8</f>
         <v>WRF331A</v>
       </c>
       <c r="AS6" s="24" t="str">
-        <f>AllEntries!AQ10</f>
+        <f>AllEntries!AP8</f>
         <v>WRF321B</v>
       </c>
       <c r="AT6" s="25" t="str">
-        <f>AllEntries!AR10</f>
+        <f>AllEntries!AQ8</f>
         <v>WRF341E</v>
       </c>
       <c r="AU6" s="25" t="str">
-        <f>AllEntries!AS10</f>
+        <f>AllEntries!AR8</f>
         <v>WRF331H</v>
       </c>
       <c r="AV6" s="25" t="str">
-        <f>AllEntries!AT10</f>
+        <f>AllEntries!AS8</f>
         <v>WRF331</v>
       </c>
       <c r="AW6" s="37" t="e">
@@ -6125,14 +6597,14 @@
         <v>#REF!</v>
       </c>
       <c r="AX6" s="43" t="str">
-        <f>AllEntries!AU10</f>
+        <f>AllEntries!AT8</f>
         <v>WRF331G</v>
       </c>
       <c r="AY6" s="84" t="str">
-        <f>AllEntries!AV10</f>
+        <f>AllEntries!AU8</f>
         <v>WRF350I</v>
       </c>
-      <c r="AZ6" s="222"/>
+      <c r="AZ6" s="199"/>
       <c r="BA6" s="76" t="s">
         <v>19</v>
       </c>
@@ -6335,7 +6807,7 @@
       <c r="AH7" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="AI7" s="204"/>
+      <c r="AI7" s="158"/>
       <c r="AJ7" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6513,7 +6985,7 @@
       <c r="AH8" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="AI8" s="205"/>
+      <c r="AI8" s="159"/>
       <c r="AJ8" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -6691,7 +7163,7 @@
       <c r="AH9" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="AI9" s="205"/>
+      <c r="AI9" s="159"/>
       <c r="AJ9" s="15">
         <f>(1*56+0*95+0)*AFR_22/1000</f>
         <v>22.5792</v>
@@ -6869,7 +7341,7 @@
       <c r="AH10" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="AI10" s="205"/>
+      <c r="AI10" s="159"/>
       <c r="AJ10" s="15">
         <f>(1*56+0*95+0)*AFR22tier1/1000</f>
         <v>651.16800000000001</v>
@@ -7049,7 +7521,7 @@
       <c r="AH11" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="AI11" s="205"/>
+      <c r="AI11" s="159"/>
       <c r="AJ11" s="15">
         <f>(0*56+0*95+0)*EUR_11/16/1000</f>
         <v>0</v>
@@ -7229,7 +7701,7 @@
       <c r="AH12" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="AI12" s="205"/>
+      <c r="AI12" s="159"/>
       <c r="AJ12" s="15">
         <f>(0*56+0*95+0)*EUR11tier1/16/1000</f>
         <v>0</v>
@@ -7410,7 +7882,7 @@
       <c r="AH13" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="AI13" s="205"/>
+      <c r="AI13" s="159"/>
       <c r="AJ13" s="15">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -7590,7 +8062,7 @@
       <c r="AH14" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="AI14" s="205"/>
+      <c r="AI14" s="159"/>
       <c r="AJ14" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -7768,7 +8240,7 @@
       <c r="AH15" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="AI15" s="205"/>
+      <c r="AI15" s="159"/>
       <c r="AJ15" s="15">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -7946,7 +8418,7 @@
       <c r="AH16" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="AI16" s="205"/>
+      <c r="AI16" s="159"/>
       <c r="AJ16" s="15">
         <f t="shared" si="14"/>
         <v>0</v>
@@ -8124,7 +8596,7 @@
       <c r="AH17" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="AI17" s="205"/>
+      <c r="AI17" s="159"/>
       <c r="AJ17" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -8302,7 +8774,7 @@
       <c r="AH18" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="AI18" s="205"/>
+      <c r="AI18" s="159"/>
       <c r="AJ18" s="15">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -8480,7 +8952,7 @@
       <c r="AH19" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="AI19" s="205"/>
+      <c r="AI19" s="159"/>
       <c r="AJ19" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -8658,7 +9130,7 @@
       <c r="AH20" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="AI20" s="205"/>
+      <c r="AI20" s="159"/>
       <c r="AJ20" s="15">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -8772,7 +9244,7 @@
       <c r="AH21" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="AI21" s="205"/>
+      <c r="AI21" s="159"/>
       <c r="AJ21" s="15"/>
       <c r="AK21" s="59"/>
       <c r="AL21" s="59"/>
@@ -8841,7 +9313,7 @@
       <c r="AH22" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="AI22" s="206"/>
+      <c r="AI22" s="160"/>
       <c r="AJ22" s="90"/>
       <c r="AK22" s="93"/>
       <c r="AL22" s="93"/>
@@ -8911,7 +9383,7 @@
       <c r="AH23" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="AI23" s="205"/>
+      <c r="AI23" s="159"/>
       <c r="AJ23" s="15"/>
       <c r="AK23" s="59"/>
       <c r="AL23" s="59"/>
@@ -9071,7 +9543,7 @@
       <c r="AH24" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="AI24" s="205"/>
+      <c r="AI24" s="159"/>
       <c r="AJ24" s="15"/>
       <c r="AK24" s="59"/>
       <c r="AL24" s="59"/>
@@ -9243,7 +9715,7 @@
       <c r="AH25" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="AI25" s="205"/>
+      <c r="AI25" s="159"/>
       <c r="AJ25" s="15"/>
       <c r="AK25" s="59"/>
       <c r="AL25" s="59"/>
@@ -9411,11 +9883,11 @@
       <c r="AD26" s="48"/>
       <c r="AE26" s="48"/>
       <c r="AF26" s="48"/>
-      <c r="AG26" s="130"/>
+      <c r="AG26" s="119"/>
       <c r="AH26" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="AI26" s="206"/>
+      <c r="AI26" s="160"/>
       <c r="AJ26" s="90"/>
       <c r="AK26" s="93"/>
       <c r="AL26" s="93"/>
@@ -9606,7 +10078,7 @@
         <f t="shared" si="20"/>
         <v>0.2829834</v>
       </c>
-      <c r="T27" s="200"/>
+      <c r="T27" s="156"/>
       <c r="U27" s="101">
         <f t="shared" si="20"/>
         <v>3.0588391124480689</v>
@@ -9656,7 +10128,7 @@
       <c r="AH27" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="AI27" s="207"/>
+      <c r="AI27" s="161"/>
       <c r="AJ27" s="102">
         <f t="shared" ref="AJ27" si="28">SUM(AJ7:AJ26)/1000</f>
         <v>0.67374719999999999</v>
@@ -9728,25 +10200,25 @@
       <c r="EN27" s="26"/>
     </row>
     <row r="28" spans="1:144" s="26" customFormat="1" ht="37.200000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="223" t="s">
+      <c r="A28" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="223"/>
-      <c r="L28" s="223"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="223"/>
-      <c r="P28" s="223"/>
-      <c r="Q28" s="223"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="200"/>
+      <c r="M28" s="200"/>
+      <c r="N28" s="200"/>
+      <c r="O28" s="200"/>
+      <c r="P28" s="200"/>
+      <c r="Q28" s="200"/>
       <c r="R28" s="40"/>
       <c r="S28" s="40"/>
       <c r="T28" s="40"/>
@@ -9782,69 +10254,69 @@
       <c r="AX28" s="30"/>
     </row>
     <row r="29" spans="1:144" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="224" t="s">
+      <c r="A29" s="201" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="224"/>
-      <c r="Q29" s="224"/>
-      <c r="R29" s="224"/>
-      <c r="S29" s="224"/>
-      <c r="T29" s="224"/>
-      <c r="U29" s="224"/>
-      <c r="V29" s="224"/>
-      <c r="W29" s="224"/>
-      <c r="X29" s="224"/>
-      <c r="Y29" s="224"/>
-      <c r="Z29" s="224"/>
-      <c r="AA29" s="224"/>
-      <c r="AB29" s="224"/>
-      <c r="AC29" s="224"/>
-      <c r="AD29" s="224"/>
-      <c r="AE29" s="224"/>
-      <c r="AF29" s="224"/>
-      <c r="AG29" s="224"/>
-      <c r="AH29" s="224"/>
-      <c r="AI29" s="224"/>
-      <c r="AJ29" s="224"/>
-      <c r="AK29" s="224"/>
-      <c r="AL29" s="224"/>
-      <c r="AM29" s="224"/>
-      <c r="AN29" s="224"/>
-      <c r="AO29" s="224"/>
-      <c r="AP29" s="224"/>
-      <c r="AQ29" s="224"/>
-      <c r="AR29" s="224"/>
-      <c r="AS29" s="224"/>
-      <c r="AT29" s="224"/>
-      <c r="AU29" s="224"/>
-      <c r="AV29" s="224"/>
-      <c r="AW29" s="224"/>
-      <c r="AX29" s="224"/>
+      <c r="B29" s="201"/>
+      <c r="C29" s="201"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="201"/>
+      <c r="S29" s="201"/>
+      <c r="T29" s="201"/>
+      <c r="U29" s="201"/>
+      <c r="V29" s="201"/>
+      <c r="W29" s="201"/>
+      <c r="X29" s="201"/>
+      <c r="Y29" s="201"/>
+      <c r="Z29" s="201"/>
+      <c r="AA29" s="201"/>
+      <c r="AB29" s="201"/>
+      <c r="AC29" s="201"/>
+      <c r="AD29" s="201"/>
+      <c r="AE29" s="201"/>
+      <c r="AF29" s="201"/>
+      <c r="AG29" s="201"/>
+      <c r="AH29" s="201"/>
+      <c r="AI29" s="201"/>
+      <c r="AJ29" s="201"/>
+      <c r="AK29" s="201"/>
+      <c r="AL29" s="201"/>
+      <c r="AM29" s="201"/>
+      <c r="AN29" s="201"/>
+      <c r="AO29" s="201"/>
+      <c r="AP29" s="201"/>
+      <c r="AQ29" s="201"/>
+      <c r="AR29" s="201"/>
+      <c r="AS29" s="201"/>
+      <c r="AT29" s="201"/>
+      <c r="AU29" s="201"/>
+      <c r="AV29" s="201"/>
+      <c r="AW29" s="201"/>
+      <c r="AX29" s="201"/>
     </row>
     <row r="30" spans="1:144" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="225" t="s">
+      <c r="A30" s="202" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="225"/>
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
+      <c r="B30" s="202"/>
+      <c r="C30" s="202"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
       <c r="H30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
@@ -9886,10 +10358,10 @@
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="226" t="s">
+      <c r="D31" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="227"/>
+      <c r="E31" s="204"/>
       <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:144" x14ac:dyDescent="0.3">
@@ -9904,11 +10376,11 @@
         <f>C33*98*63/194/201</f>
         <v>460.27127250346206</v>
       </c>
-      <c r="D32" s="228">
+      <c r="D32" s="205">
         <f t="shared" ref="D32:D37" si="33">(B32+C32)/1</f>
         <v>476.23114325280812</v>
       </c>
-      <c r="E32" s="229"/>
+      <c r="E32" s="206"/>
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:49" x14ac:dyDescent="0.3">
@@ -9922,11 +10394,11 @@
       <c r="C33" s="10">
         <v>2907</v>
       </c>
-      <c r="D33" s="230">
+      <c r="D33" s="207">
         <f t="shared" si="33"/>
         <v>3007.8</v>
       </c>
-      <c r="E33" s="231"/>
+      <c r="E33" s="208"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.3">
@@ -9941,11 +10413,11 @@
         <f>4*AFR44tier1</f>
         <v>11628</v>
       </c>
-      <c r="D34" s="230">
+      <c r="D34" s="207">
         <f t="shared" si="33"/>
         <v>12031.2</v>
       </c>
-      <c r="E34" s="231"/>
+      <c r="E34" s="208"/>
       <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.3">
@@ -9959,11 +10431,11 @@
       <c r="C35" s="98">
         <v>13005</v>
       </c>
-      <c r="D35" s="230">
+      <c r="D35" s="207">
         <f t="shared" si="33"/>
         <v>13475.4</v>
       </c>
-      <c r="E35" s="231"/>
+      <c r="E35" s="208"/>
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:49" x14ac:dyDescent="0.3">
@@ -9978,11 +10450,11 @@
         <f>C33*125*97/194/201</f>
         <v>903.91791044776119</v>
       </c>
-      <c r="D36" s="230">
+      <c r="D36" s="207">
         <f t="shared" si="33"/>
         <v>932.02992768118168</v>
       </c>
-      <c r="E36" s="231"/>
+      <c r="E36" s="208"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9997,34 +10469,34 @@
         <f>C33*116*133/194/201</f>
         <v>1150.1563317433452</v>
       </c>
-      <c r="D37" s="232">
+      <c r="D37" s="209">
         <f t="shared" si="33"/>
         <v>1190.0379135251578</v>
       </c>
-      <c r="E37" s="233"/>
+      <c r="E37" s="210"/>
       <c r="F37" s="26"/>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A38" s="218" t="s">
+      <c r="A38" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="218"/>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
+      <c r="B38" s="195"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="195"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
     </row>
     <row r="39" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A39" s="219" t="s">
+      <c r="A39" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="219"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="219"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="219"/>
+      <c r="B39" s="196"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
       <c r="H39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
@@ -10089,8 +10561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="L1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10144,27 +10616,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="211" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="234"/>
-      <c r="P1" s="234"/>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
+      <c r="B1" s="211"/>
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
       <c r="T1" s="104"/>
       <c r="U1" s="64"/>
       <c r="V1" s="20"/>
@@ -10196,22 +10668,22 @@
     <row r="2" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54">
         <f>GeneralRemarks!A2</f>
-        <v>41716</v>
-      </c>
-      <c r="B2" s="235"/>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
+        <v>41731</v>
+      </c>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
       <c r="R2" s="20"/>
@@ -10243,7 +10715,7 @@
       <c r="AS2" s="20"/>
       <c r="AU2" s="52">
         <f>A2</f>
-        <v>41716</v>
+        <v>41731</v>
       </c>
       <c r="AV2" s="26"/>
     </row>
@@ -10311,132 +10783,132 @@
         <f>AllEntries!P7</f>
         <v>SMHI</v>
       </c>
-      <c r="Q3" s="180"/>
+      <c r="Q3" s="139"/>
       <c r="R3" s="80" t="str">
+        <f>AllEntries!Q7</f>
+        <v>CHMI</v>
+      </c>
+      <c r="S3" s="80" t="str">
         <f>AllEntries!R7</f>
-        <v>CHMI</v>
-      </c>
-      <c r="S3" s="80" t="str">
+        <v>HMS</v>
+      </c>
+      <c r="T3" s="80" t="str">
         <f>AllEntries!S7</f>
-        <v>HMS</v>
-      </c>
-      <c r="T3" s="80" t="str">
+        <v>CNRM</v>
+      </c>
+      <c r="U3" s="80" t="str">
         <f>AllEntries!T7</f>
         <v>CNRM</v>
       </c>
-      <c r="U3" s="80" t="str">
+      <c r="V3" s="110" t="str">
         <f>AllEntries!U7</f>
-        <v>CNRM</v>
-      </c>
-      <c r="V3" s="110" t="str">
+        <v>KNMI</v>
+      </c>
+      <c r="W3" s="110" t="str">
         <f>AllEntries!V7</f>
         <v>KNMI</v>
       </c>
-      <c r="W3" s="110" t="str">
+      <c r="X3" s="125" t="str">
         <f>AllEntries!W7</f>
         <v>KNMI</v>
       </c>
-      <c r="X3" s="144" t="str">
+      <c r="Y3" s="139" t="str">
         <f>AllEntries!X7</f>
-        <v>KNMI</v>
-      </c>
-      <c r="Y3" s="180" t="str">
+        <v>UQAM</v>
+      </c>
+      <c r="Z3" s="80" t="str">
         <f>AllEntries!Y7</f>
-        <v>UQAM</v>
-      </c>
-      <c r="Z3" s="80" t="str">
+        <v>UCLM</v>
+      </c>
+      <c r="AA3" s="80" t="str">
         <f>AllEntries!Z7</f>
-        <v>UCLM</v>
-      </c>
-      <c r="AA3" s="80" t="str">
+        <v>ICTP</v>
+      </c>
+      <c r="AB3" s="139" t="str">
         <f>AllEntries!AA7</f>
-        <v>ICTP</v>
-      </c>
-      <c r="AB3" s="180" t="str">
+        <v>ENEA</v>
+      </c>
+      <c r="AC3" s="80" t="str">
         <f>AllEntries!AB7</f>
-        <v>ENEA</v>
-      </c>
-      <c r="AC3" s="80" t="str">
+        <v>CUNI</v>
+      </c>
+      <c r="AD3" s="80" t="str">
         <f>AllEntries!AC7</f>
-        <v>CUNI</v>
-      </c>
-      <c r="AD3" s="80" t="str">
+        <v>DHMZ</v>
+      </c>
+      <c r="AE3" s="139" t="str">
         <f>AllEntries!AD7</f>
-        <v>DHMZ</v>
-      </c>
-      <c r="AE3" s="180" t="str">
+        <v>GISS</v>
+      </c>
+      <c r="AF3" s="139" t="str">
         <f>AllEntries!AE7</f>
-        <v>GISS</v>
-      </c>
-      <c r="AF3" s="180" t="str">
+        <v>CCCma</v>
+      </c>
+      <c r="AG3" s="139" t="str">
         <f>AllEntries!AF7</f>
-        <v>CCCma</v>
-      </c>
-      <c r="AG3" s="180" t="str">
+        <v>CSIR</v>
+      </c>
+      <c r="AH3" s="139" t="str">
         <f>AllEntries!AG7</f>
-        <v>CSIR</v>
-      </c>
-      <c r="AH3" s="180" t="str">
+        <v>KAUST</v>
+      </c>
+      <c r="AI3" s="80" t="str">
         <f>AllEntries!AH7</f>
-        <v>KAUST</v>
-      </c>
-      <c r="AI3" s="80" t="str">
+        <v>MOHC</v>
+      </c>
+      <c r="AJ3" s="80" t="str">
         <f>AllEntries!AI7</f>
         <v>MOHC</v>
       </c>
-      <c r="AJ3" s="80" t="str">
+      <c r="AK3" s="80" t="str">
         <f>AllEntries!AJ7</f>
-        <v>MOHC</v>
-      </c>
-      <c r="AK3" s="80" t="str">
+        <v>MIUB</v>
+      </c>
+      <c r="AL3" s="125" t="str">
         <f>AllEntries!AK7</f>
-        <v>MIUB</v>
-      </c>
-      <c r="AL3" s="144" t="str">
+        <v>BCCR</v>
+      </c>
+      <c r="AM3" s="80" t="str">
         <f>AllEntries!AL7</f>
-        <v>BCCR</v>
-      </c>
-      <c r="AM3" s="80" t="str">
+        <v>CRP-GL</v>
+      </c>
+      <c r="AN3" s="80" t="str">
         <f>AllEntries!AM7</f>
-        <v>CRP-GL</v>
-      </c>
-      <c r="AN3" s="80" t="str">
+        <v>IDL</v>
+      </c>
+      <c r="AO3" s="80" t="str">
         <f>AllEntries!AN7</f>
-        <v>IDL</v>
-      </c>
-      <c r="AO3" s="80" t="str">
+        <v>IPSL-INERIS</v>
+      </c>
+      <c r="AP3" s="80" t="str">
         <f>AllEntries!AO7</f>
-        <v>IPSL-INERIS</v>
-      </c>
-      <c r="AP3" s="80" t="str">
+        <v>AUTH-Met</v>
+      </c>
+      <c r="AQ3" s="80" t="str">
         <f>AllEntries!AP7</f>
-        <v>AUTH-Met</v>
-      </c>
-      <c r="AQ3" s="80" t="str">
+        <v>AUTH-LHTEE</v>
+      </c>
+      <c r="AR3" s="80" t="str">
         <f>AllEntries!AQ7</f>
-        <v>AUTH-LHTEE</v>
-      </c>
-      <c r="AR3" s="80" t="str">
+        <v>NUIM</v>
+      </c>
+      <c r="AS3" s="80" t="str">
         <f>AllEntries!AR7</f>
-        <v>NUIM</v>
-      </c>
-      <c r="AS3" s="80" t="str">
+        <v>UHOH</v>
+      </c>
+      <c r="AT3" s="80" t="str">
         <f>AllEntries!AS7</f>
-        <v>UHOH</v>
-      </c>
-      <c r="AT3" s="80" t="str">
+        <v>UM</v>
+      </c>
+      <c r="AU3" s="80" t="str">
         <f>AllEntries!AT7</f>
-        <v>UM</v>
-      </c>
-      <c r="AU3" s="80" t="str">
+        <v>UCAN</v>
+      </c>
+      <c r="AV3" s="162" t="str">
         <f>AllEntries!AU7</f>
         <v>UCAN</v>
       </c>
-      <c r="AV3" s="208" t="str">
-        <f>AllEntries!AV7</f>
-        <v>UCAN</v>
-      </c>
-      <c r="AW3" s="221"/>
+      <c r="AW3" s="198"/>
       <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
@@ -10465,199 +10937,198 @@
       <c r="BW3" s="2"/>
     </row>
     <row r="4" spans="1:75" s="1" customFormat="1" ht="66.599999999999994" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="149" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!B8),"",AllEntries!B8)</f>
+      <c r="B4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!B9),"",AllEntries!B9)</f>
         <v/>
       </c>
-      <c r="C4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!C8),"",AllEntries!C8)</f>
+      <c r="C4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!C9),"",AllEntries!C9)</f>
+        <v>Alfred Wegener Institute, Helmholtz Centre for Polar and Marine Research</v>
+      </c>
+      <c r="D4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!D9),"",AllEntries!D9)</f>
+        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
+      </c>
+      <c r="E4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!E9),"",AllEntries!E9)</f>
+        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
+      </c>
+      <c r="F4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!F9),"",AllEntries!F9)</f>
+        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
+      </c>
+      <c r="G4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!G9),"",AllEntries!G9)</f>
+        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
+      </c>
+      <c r="H4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!H9),"",AllEntries!H9)</f>
+        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
+      </c>
+      <c r="I4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!I9),"",AllEntries!I9)</f>
+        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
+      </c>
+      <c r="J4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!J9),"",AllEntries!J9)</f>
+        <v>Helmholtz-Zentrum Geesthacht, Climate Service Center, Max Planck Institute for Meteorology</v>
+      </c>
+      <c r="K4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!K9),"",AllEntries!K9)</f>
+        <v>Helmholtz-Zentrum Geesthacht, Climate Service Center, Max Planck Institute for Meteorology</v>
+      </c>
+      <c r="L4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!L9),"",AllEntries!L9)</f>
+        <v>Helmholtz-Zentrum Geesthacht, Climate Service Center, Max Planck Institute for Meteorology</v>
+      </c>
+      <c r="M4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!M9),"",AllEntries!M9)</f>
+        <v>Swedish Meteorological and Hydrological Institute, Rossby Centre</v>
+      </c>
+      <c r="N4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!N9),"",AllEntries!N9)</f>
+        <v>Swedish Meteorological and Hydrological Institute, Rossby Centre</v>
+      </c>
+      <c r="O4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!O9),"",AllEntries!O9)</f>
+        <v>Swedish Meteorological and Hydrological Institute, Rossby Centre</v>
+      </c>
+      <c r="P4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!P9),"",AllEntries!P9)</f>
+        <v>Swedish Meteorological and Hydrological Institute, Rossby Centre</v>
+      </c>
+      <c r="Q4" s="150" t="e">
+        <f>IF(ISBLANK(AllEntries!#REF!),"",AllEntries!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!Q9),"",AllEntries!Q9)</f>
         <v/>
       </c>
-      <c r="D4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!D8),"",AllEntries!D8)</f>
-        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
-      </c>
-      <c r="E4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!E8),"",AllEntries!E8)</f>
-        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
-      </c>
-      <c r="F4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!F8),"",AllEntries!F8)</f>
-        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
-      </c>
-      <c r="G4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!G8),"",AllEntries!G8)</f>
-        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
-      </c>
-      <c r="H4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!H8),"",AllEntries!H8)</f>
-        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
-      </c>
-      <c r="I4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!I8),"",AllEntries!I8)</f>
-        <v>Climate Limited-area Modelling Community (CLM-Community)</v>
-      </c>
-      <c r="J4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!J8),"",AllEntries!J8)</f>
-        <v>Helmholtz-Zentrum Geesthacht, Climate Service Center, Max Planck Institute for Meteorology</v>
-      </c>
-      <c r="K4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!K8),"",AllEntries!K8)</f>
-        <v>Helmholtz-Zentrum Geesthacht, Climate Service Center, Max Planck Institute for Meteorology</v>
-      </c>
-      <c r="L4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!L8),"",AllEntries!L8)</f>
-        <v>Helmholtz-Zentrum Geesthacht, Climate Service Center, Max Planck Institute for Meteorology</v>
-      </c>
-      <c r="M4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!M8),"",AllEntries!M8)</f>
-        <v>Swedish Meteorological and Hydrological Institute, Rossby Centre</v>
-      </c>
-      <c r="N4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!N8),"",AllEntries!N8)</f>
-        <v>Swedish Meteorological and Hydrological Institute, Rossby Centre</v>
-      </c>
-      <c r="O4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!O8),"",AllEntries!O8)</f>
-        <v>Swedish Meteorological and Hydrological Institute, Rossby Centre</v>
-      </c>
-      <c r="P4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!P8),"",AllEntries!P8)</f>
-        <v>Swedish Meteorological and Hydrological Institute, Rossby Centre</v>
-      </c>
-      <c r="Q4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!Q8),"",AllEntries!Q8)</f>
-        <v>institution
-(long version)</v>
-      </c>
-      <c r="R4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!R8),"",AllEntries!R8)</f>
+      <c r="S4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!R9),"",AllEntries!R9)</f>
+        <v>Hungarian Meteorological Service</v>
+      </c>
+      <c r="T4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!S9),"",AllEntries!S9)</f>
+        <v>Centre National de Recherches Meteorologiques</v>
+      </c>
+      <c r="U4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!T9),"",AllEntries!T9)</f>
+        <v>Centre National de Recherches Meteorologiques</v>
+      </c>
+      <c r="V4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!U9),"",AllEntries!U9)</f>
+        <v>Royal Netherlands Meteorological Institute, De Bilt, The Netherlands</v>
+      </c>
+      <c r="W4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!V9),"",AllEntries!V9)</f>
+        <v>Royal Netherlands Meteorological Institute, De Bilt, The Netherlands</v>
+      </c>
+      <c r="X4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!W9),"",AllEntries!W9)</f>
+        <v>Royal Netherlands Meteorological Institute, De Bilt, The Netherlands</v>
+      </c>
+      <c r="Y4" s="152" t="str">
+        <f>IF(ISBLANK(AllEntries!X9),"",AllEntries!X9)</f>
+        <v>Universite du Quebec a Montreal</v>
+      </c>
+      <c r="Z4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!Y9),"",AllEntries!Y9)</f>
+        <v>University of Castilla-La Mancha, Toledo, Spain</v>
+      </c>
+      <c r="AA4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!Z9),"",AllEntries!Z9)</f>
+        <v xml:space="preserve"> Abdus Salam International Centre for Theoretical Physics</v>
+      </c>
+      <c r="AB4" s="152" t="str">
+        <f>IF(ISBLANK(AllEntries!AA9),"",AllEntries!AA9)</f>
+        <v>Italian National Agency for New Technologies, Energy and Sustainable Economic Development</v>
+      </c>
+      <c r="AC4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AB9),"",AllEntries!AB9)</f>
         <v/>
       </c>
-      <c r="S4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!S8),"",AllEntries!S8)</f>
+      <c r="AD4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AC9),"",AllEntries!AC9)</f>
+        <v>Meteorological and Hydrological Service of Croatia</v>
+      </c>
+      <c r="AE4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AD9),"",AllEntries!AD9)</f>
         <v/>
       </c>
-      <c r="T4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!T8),"",AllEntries!T8)</f>
-        <v>Centre National de Recherches Meteorologiques</v>
-      </c>
-      <c r="U4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!U8),"",AllEntries!U8)</f>
-        <v>Centre National de Recherches Meteorologiques</v>
-      </c>
-      <c r="V4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!V8),"",AllEntries!V8)</f>
-        <v>Royal Netherlands Meteorological Institute, De Bilt, The Netherlands</v>
-      </c>
-      <c r="W4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!W8),"",AllEntries!W8)</f>
-        <v>Royal Netherlands Meteorological Institute, De Bilt, The Netherlands</v>
-      </c>
-      <c r="X4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!X8),"",AllEntries!X8)</f>
-        <v>Royal Netherlands Meteorological Institute, De Bilt, The Netherlands</v>
-      </c>
-      <c r="Y4" s="196" t="str">
-        <f>IF(ISBLANK(AllEntries!Y8),"",AllEntries!Y8)</f>
-        <v>Universite du Quebec a Montreal</v>
-      </c>
-      <c r="Z4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!Z8),"",AllEntries!Z8)</f>
-        <v>University of Castilla-La Mancha, Toledo, Spain</v>
-      </c>
-      <c r="AA4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AA8),"",AllEntries!AA8)</f>
+      <c r="AF4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AE9),"",AllEntries!AE9)</f>
+        <v>CCCma (Canadian Centre for Climate Modelling and Analysis, Victoria, BC, Canada)</v>
+      </c>
+      <c r="AG4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AF9),"",AllEntries!AF9)</f>
         <v/>
       </c>
-      <c r="AB4" s="196" t="str">
-        <f>IF(ISBLANK(AllEntries!AB8),"",AllEntries!AB8)</f>
+      <c r="AH4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AG9),"",AllEntries!AG9)</f>
         <v/>
       </c>
-      <c r="AC4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AC8),"",AllEntries!AC8)</f>
+      <c r="AI4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AH9),"",AllEntries!AH9)</f>
+        <v>Met Office Hadley Centre</v>
+      </c>
+      <c r="AJ4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AI9),"",AllEntries!AI9)</f>
+        <v>Met Office Hadley Centre</v>
+      </c>
+      <c r="AK4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AJ9),"",AllEntries!AJ9)</f>
         <v/>
       </c>
-      <c r="AD4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AD8),"",AllEntries!AD8)</f>
-        <v>Meteorological and Hydrological Service of Croatia</v>
-      </c>
-      <c r="AE4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AE8),"",AllEntries!AE8)</f>
+      <c r="AL4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AK9),"",AllEntries!AK9)</f>
+        <v>Bjerknes Centre for Climate Research</v>
+      </c>
+      <c r="AM4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AL9),"",AllEntries!AL9)</f>
         <v/>
       </c>
-      <c r="AF4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AF8),"",AllEntries!AF8)</f>
-        <v>CCCma (Canadian Centre for Climate Modelling and Analysis, Victoria, BC, Canada)</v>
-      </c>
-      <c r="AG4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AG8),"",AllEntries!AG8)</f>
+      <c r="AN4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AM9),"",AllEntries!AM9)</f>
         <v/>
       </c>
-      <c r="AH4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AH8),"",AllEntries!AH8)</f>
+      <c r="AO4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AN9),"",AllEntries!AN9)</f>
         <v/>
       </c>
-      <c r="AI4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AI8),"",AllEntries!AI8)</f>
-        <v>Met Office Hadley Centre</v>
-      </c>
-      <c r="AJ4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AJ8),"",AllEntries!AJ8)</f>
-        <v>Met Office Hadley Centre</v>
-      </c>
-      <c r="AK4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AK8),"",AllEntries!AK8)</f>
+      <c r="AP4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AO9),"",AllEntries!AO9)</f>
         <v/>
       </c>
-      <c r="AL4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AL8),"",AllEntries!AL8)</f>
-        <v>Bjerknes Centre for Climate Research</v>
-      </c>
-      <c r="AM4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AM8),"",AllEntries!AM8)</f>
+      <c r="AQ4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AP9),"",AllEntries!AP9)</f>
         <v/>
       </c>
-      <c r="AN4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AN8),"",AllEntries!AN8)</f>
+      <c r="AR4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AQ9),"",AllEntries!AQ9)</f>
         <v/>
       </c>
-      <c r="AO4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AO8),"",AllEntries!AO8)</f>
+      <c r="AS4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AR9),"",AllEntries!AR9)</f>
         <v/>
       </c>
-      <c r="AP4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AP8),"",AllEntries!AP8)</f>
+      <c r="AT4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AS9),"",AllEntries!AS9)</f>
         <v/>
       </c>
-      <c r="AQ4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AQ8),"",AllEntries!AQ8)</f>
+      <c r="AU4" s="150" t="str">
+        <f>IF(ISBLANK(AllEntries!AT9),"",AllEntries!AT9)</f>
         <v/>
       </c>
-      <c r="AR4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AR8),"",AllEntries!AR8)</f>
+      <c r="AV4" s="163" t="str">
+        <f>IF(ISBLANK(AllEntries!AU9),"",AllEntries!AU9)</f>
         <v/>
       </c>
-      <c r="AS4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AS8),"",AllEntries!AS8)</f>
-        <v/>
-      </c>
-      <c r="AT4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AT8),"",AllEntries!AT8)</f>
-        <v/>
-      </c>
-      <c r="AU4" s="191" t="str">
-        <f>IF(ISBLANK(AllEntries!AU8),"",AllEntries!AU8)</f>
-        <v/>
-      </c>
-      <c r="AV4" s="209" t="str">
-        <f>IF(ISBLANK(AllEntries!AV8),"",AllEntries!AV8)</f>
-        <v/>
-      </c>
-      <c r="AW4" s="221"/>
+      <c r="AW4" s="198"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
@@ -10686,195 +11157,195 @@
       <c r="BW4" s="2"/>
     </row>
     <row r="5" spans="1:75" s="1" customFormat="1" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="155" t="s">
         <v>86</v>
       </c>
       <c r="B5" s="65" t="str">
-        <f>AllEntries!B10</f>
+        <f>AllEntries!B8</f>
         <v>HIRHAM5</v>
       </c>
       <c r="C5" s="65" t="str">
-        <f>AllEntries!C10</f>
+        <f>AllEntries!C8</f>
         <v>HIRHAM5</v>
       </c>
       <c r="D5" s="65" t="str">
-        <f>AllEntries!D10</f>
+        <f>AllEntries!D8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="E5" s="65" t="str">
-        <f>AllEntries!E10</f>
+        <f>AllEntries!E8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="F5" s="65" t="str">
-        <f>AllEntries!F10</f>
+        <f>AllEntries!F8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="G5" s="65" t="str">
-        <f>AllEntries!G10</f>
+        <f>AllEntries!G8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="H5" s="65" t="str">
-        <f>AllEntries!H10</f>
+        <f>AllEntries!H8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="I5" s="65" t="str">
-        <f>AllEntries!I10</f>
+        <f>AllEntries!I8</f>
         <v>CCLM4-8-17</v>
       </c>
       <c r="J5" s="65" t="str">
-        <f>AllEntries!J10</f>
+        <f>AllEntries!J8</f>
         <v>REMO2009</v>
       </c>
       <c r="K5" s="65" t="str">
-        <f>AllEntries!K10</f>
+        <f>AllEntries!K8</f>
         <v>REMO2009</v>
       </c>
       <c r="L5" s="65" t="str">
-        <f>AllEntries!L10</f>
+        <f>AllEntries!L8</f>
         <v>REMO2009</v>
       </c>
       <c r="M5" s="65" t="str">
-        <f>AllEntries!M10</f>
+        <f>AllEntries!M8</f>
         <v>RCAO-SN</v>
       </c>
       <c r="N5" s="65" t="str">
-        <f>AllEntries!N10</f>
+        <f>AllEntries!N8</f>
         <v>RCA4-SN</v>
       </c>
       <c r="O5" s="65" t="str">
-        <f>AllEntries!O10</f>
+        <f>AllEntries!O8</f>
         <v>RCAO</v>
       </c>
       <c r="P5" s="65" t="str">
-        <f>AllEntries!P10</f>
+        <f>AllEntries!P8</f>
         <v>RCA4</v>
       </c>
-      <c r="Q5" s="181"/>
+      <c r="Q5" s="140"/>
       <c r="R5" s="65" t="str">
-        <f>AllEntries!R10</f>
+        <f>AllEntries!Q8</f>
         <v>ALADIN52</v>
       </c>
       <c r="S5" s="65" t="str">
-        <f>AllEntries!S10</f>
+        <f>AllEntries!R8</f>
         <v>ALADIN52</v>
       </c>
       <c r="T5" s="65" t="str">
-        <f>AllEntries!T10</f>
+        <f>AllEntries!S8</f>
         <v>ALADIN52</v>
       </c>
       <c r="U5" s="65" t="str">
-        <f>AllEntries!U10</f>
+        <f>AllEntries!T8</f>
         <v>ARPEGE52</v>
       </c>
       <c r="V5" s="111" t="str">
-        <f>AllEntries!V10</f>
+        <f>AllEntries!U8</f>
         <v>RACMO22E</v>
       </c>
       <c r="W5" s="111" t="str">
-        <f>AllEntries!W10</f>
+        <f>AllEntries!V8</f>
         <v>RACMO21P</v>
       </c>
-      <c r="X5" s="145" t="str">
-        <f>AllEntries!X10</f>
+      <c r="X5" s="126" t="str">
+        <f>AllEntries!W8</f>
         <v>RACMO22T</v>
       </c>
-      <c r="Y5" s="181" t="str">
-        <f>AllEntries!Y10</f>
+      <c r="Y5" s="140" t="str">
+        <f>AllEntries!X8</f>
         <v>CRCM5</v>
       </c>
       <c r="Z5" s="65" t="str">
-        <f>AllEntries!Z10</f>
+        <f>AllEntries!Y8</f>
         <v>PROMES</v>
       </c>
       <c r="AA5" s="65" t="str">
-        <f>AllEntries!AA10</f>
+        <f>AllEntries!Z8</f>
         <v>RegCM4-3</v>
       </c>
-      <c r="AB5" s="181" t="str">
-        <f>AllEntries!AB10</f>
+      <c r="AB5" s="140" t="str">
+        <f>AllEntries!AA8</f>
         <v>RegCM4-3</v>
       </c>
       <c r="AC5" s="65" t="str">
-        <f>AllEntries!AC10</f>
+        <f>AllEntries!AB8</f>
         <v>RegCM4-2</v>
       </c>
       <c r="AD5" s="65" t="str">
-        <f>AllEntries!AD10</f>
+        <f>AllEntries!AC8</f>
         <v>RegCM4-2</v>
       </c>
-      <c r="AE5" s="181" t="str">
-        <f>AllEntries!AE10</f>
+      <c r="AE5" s="140" t="str">
+        <f>AllEntries!AD8</f>
         <v>RM3</v>
       </c>
-      <c r="AF5" s="181" t="str">
-        <f>AllEntries!AF10</f>
+      <c r="AF5" s="140" t="str">
+        <f>AllEntries!AE8</f>
         <v>CanRCM4</v>
       </c>
-      <c r="AG5" s="181" t="str">
-        <f>AllEntries!AG10</f>
+      <c r="AG5" s="140" t="str">
+        <f>AllEntries!AF8</f>
         <v>CCAM</v>
       </c>
-      <c r="AH5" s="181" t="str">
-        <f>AllEntries!AH10</f>
+      <c r="AH5" s="140" t="str">
+        <f>AllEntries!AG8</f>
         <v>GFDL</v>
       </c>
       <c r="AI5" s="65" t="str">
-        <f>AllEntries!AI10</f>
+        <f>AllEntries!AH8</f>
         <v>HadGEM3-RA</v>
       </c>
       <c r="AJ5" s="65" t="str">
-        <f>AllEntries!AJ10</f>
+        <f>AllEntries!AI8</f>
         <v>HadRM3P</v>
       </c>
       <c r="AK5" s="65" t="str">
-        <f>AllEntries!AK10</f>
+        <f>AllEntries!AJ8</f>
         <v>WRF331A</v>
       </c>
-      <c r="AL5" s="145" t="str">
-        <f>AllEntries!AL10</f>
+      <c r="AL5" s="126" t="str">
+        <f>AllEntries!AK8</f>
         <v>WRF331C</v>
       </c>
       <c r="AM5" s="65" t="str">
-        <f>AllEntries!AM10</f>
+        <f>AllEntries!AL8</f>
         <v>WRF331A</v>
       </c>
       <c r="AN5" s="65" t="str">
-        <f>AllEntries!AN10</f>
+        <f>AllEntries!AM8</f>
         <v>WRF331D</v>
       </c>
       <c r="AO5" s="65" t="str">
-        <f>AllEntries!AO10</f>
+        <f>AllEntries!AN8</f>
         <v>WRF331F</v>
       </c>
       <c r="AP5" s="65" t="str">
-        <f>AllEntries!AP10</f>
+        <f>AllEntries!AO8</f>
         <v>WRF331A</v>
       </c>
       <c r="AQ5" s="65" t="str">
-        <f>AllEntries!AQ10</f>
+        <f>AllEntries!AP8</f>
         <v>WRF321B</v>
       </c>
       <c r="AR5" s="65" t="str">
-        <f>AllEntries!AR10</f>
+        <f>AllEntries!AQ8</f>
         <v>WRF341E</v>
       </c>
       <c r="AS5" s="65" t="str">
-        <f>AllEntries!AS10</f>
+        <f>AllEntries!AR8</f>
         <v>WRF331H</v>
       </c>
       <c r="AT5" s="65" t="str">
-        <f>AllEntries!AT10</f>
+        <f>AllEntries!AS8</f>
         <v>WRF331</v>
       </c>
       <c r="AU5" s="65" t="str">
-        <f>AllEntries!AU10</f>
+        <f>AllEntries!AT8</f>
         <v>WRF331G</v>
       </c>
-      <c r="AV5" s="210" t="str">
-        <f>AllEntries!AV10</f>
+      <c r="AV5" s="164" t="str">
+        <f>AllEntries!AU8</f>
         <v>WRF350I</v>
       </c>
-      <c r="AW5" s="221"/>
+      <c r="AW5" s="198"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
@@ -10966,7 +11437,7 @@
         <f t="shared" ref="P6" si="13">IF(ISBLANK(P9),"",CONCATENATE(P3,"-",P5))</f>
         <v>SMHI-RCA4</v>
       </c>
-      <c r="Q6" s="181" t="str">
+      <c r="Q6" s="140" t="str">
         <f t="shared" ref="Q6" si="14">IF(ISBLANK(Q9),"",CONCATENATE(Q3,"-",Q5))</f>
         <v/>
       </c>
@@ -10998,7 +11469,7 @@
         <f t="shared" ref="X6" si="21">IF(ISBLANK(X9),"",CONCATENATE(X3,"-",X5))</f>
         <v>KNMI-RACMO22T</v>
       </c>
-      <c r="Y6" s="181" t="str">
+      <c r="Y6" s="140" t="str">
         <f t="shared" ref="Y6" si="22">IF(ISBLANK(Y9),"",CONCATENATE(Y3,"-",Y5))</f>
         <v/>
       </c>
@@ -11010,7 +11481,7 @@
         <f t="shared" ref="AA6:AB6" si="24">IF(ISBLANK(AA9),"",CONCATENATE(AA3,"-",AA5))</f>
         <v>ICTP-RegCM4-3</v>
       </c>
-      <c r="AB6" s="181" t="str">
+      <c r="AB6" s="140" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -11022,19 +11493,19 @@
         <f t="shared" ref="AD6" si="26">IF(ISBLANK(AD9),"",CONCATENATE(AD3,"-",AD5))</f>
         <v>DHMZ-RegCM4-2</v>
       </c>
-      <c r="AE6" s="181" t="str">
+      <c r="AE6" s="140" t="str">
         <f t="shared" ref="AE6" si="27">IF(ISBLANK(AE9),"",CONCATENATE(AE3,"-",AE5))</f>
         <v/>
       </c>
-      <c r="AF6" s="181" t="str">
+      <c r="AF6" s="140" t="str">
         <f t="shared" ref="AF6" si="28">IF(ISBLANK(AF9),"",CONCATENATE(AF3,"-",AF5))</f>
         <v/>
       </c>
-      <c r="AG6" s="181" t="str">
+      <c r="AG6" s="140" t="str">
         <f t="shared" ref="AG6" si="29">IF(ISBLANK(AG9),"",CONCATENATE(AG3,"-",AG5))</f>
         <v/>
       </c>
-      <c r="AH6" s="181" t="str">
+      <c r="AH6" s="140" t="str">
         <f t="shared" ref="AH6" si="30">IF(ISBLANK(AH9),"",CONCATENATE(AH3,"-",AH5))</f>
         <v/>
       </c>
@@ -11090,7 +11561,7 @@
         <f t="shared" ref="AU6" si="40">IF(ISBLANK(AU9),"",CONCATENATE(AU3,"-",AU5))</f>
         <v>UCAN-WRF331G</v>
       </c>
-      <c r="AV6" s="210" t="str">
+      <c r="AV6" s="164" t="str">
         <f t="shared" ref="AV6" si="41">IF(ISBLANK(AV9),"",CONCATENATE(AV3,"-",AV5))</f>
         <v>UCAN-WRF350I</v>
       </c>
@@ -11123,195 +11594,195 @@
       <c r="BW6" s="2"/>
     </row>
     <row r="7" spans="1:75" s="1" customFormat="1" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="197" t="s">
+      <c r="A7" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!B5),"unknown",AllEntries!B5)</f>
+      <c r="B7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!B11),"unknown",AllEntries!B11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="C7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!C5),"unknown",AllEntries!C5)</f>
+      <c r="C7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!C11),"unknown",AllEntries!C11)</f>
         <v>unknown</v>
       </c>
-      <c r="D7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!D5),"unknown",AllEntries!D5)</f>
+      <c r="D7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!D11),"unknown",AllEntries!D11)</f>
         <v>non-commercial only</v>
       </c>
-      <c r="E7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!E5),"unknown",AllEntries!E5)</f>
+      <c r="E7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!E11),"unknown",AllEntries!E11)</f>
         <v>non-commercial only</v>
       </c>
-      <c r="F7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!F5),"unknown",AllEntries!F5)</f>
+      <c r="F7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!F11),"unknown",AllEntries!F11)</f>
         <v>non-commercial only</v>
       </c>
-      <c r="G7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!G5),"unknown",AllEntries!G5)</f>
+      <c r="G7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!G11),"unknown",AllEntries!G11)</f>
         <v>non-commercial only</v>
       </c>
-      <c r="H7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!H5),"unknown",AllEntries!H5)</f>
+      <c r="H7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!H11),"unknown",AllEntries!H11)</f>
         <v>non-commercial only</v>
       </c>
-      <c r="I7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!I5),"unknown",AllEntries!I5)</f>
+      <c r="I7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!I11),"unknown",AllEntries!I11)</f>
         <v>non-commercial only</v>
       </c>
-      <c r="J7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!J5),"unknown",AllEntries!J5)</f>
+      <c r="J7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!J11),"unknown",AllEntries!J11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="K7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!K5),"unknown",AllEntries!K5)</f>
+      <c r="K7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!K11),"unknown",AllEntries!K11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="L7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!L5),"unknown",AllEntries!L5)</f>
+      <c r="L7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!L11),"unknown",AllEntries!L11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="M7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!M5),"",AllEntries!M5)</f>
+      <c r="M7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!M11),"",AllEntries!M11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="N7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!N5),"",AllEntries!N5)</f>
+      <c r="N7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!N11),"",AllEntries!N11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="O7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!O5),"",AllEntries!O5)</f>
+      <c r="O7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!O11),"",AllEntries!O11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="P7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!P5),"",AllEntries!P5)</f>
+      <c r="P7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!P11),"",AllEntries!P11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!R5),"unknown",AllEntries!R5)</f>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!Q11),"unknown",AllEntries!Q11)</f>
         <v>unknown</v>
       </c>
-      <c r="S7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!S5),"unknown",AllEntries!S5)</f>
+      <c r="S7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!R11),"unknown",AllEntries!R11)</f>
+        <v>non-commercial only</v>
+      </c>
+      <c r="T7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!S11),"unknown",AllEntries!S11)</f>
+        <v>unrestricted</v>
+      </c>
+      <c r="U7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!T11),"unknown",AllEntries!T11)</f>
+        <v>unrestricted</v>
+      </c>
+      <c r="V7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!U11),"unknown",AllEntries!U11)</f>
+        <v>unrestricted</v>
+      </c>
+      <c r="W7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!V11),"unknown",AllEntries!V11)</f>
+        <v>unrestricted</v>
+      </c>
+      <c r="X7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!W11),"unknown",AllEntries!W11)</f>
+        <v>unrestricted</v>
+      </c>
+      <c r="Y7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!X11),"unknown",AllEntries!X11)</f>
+        <v>unrestricted</v>
+      </c>
+      <c r="Z7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!Y11),"unknown",AllEntries!Y11)</f>
         <v>unknown</v>
       </c>
-      <c r="T7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!T5),"unknown",AllEntries!T5)</f>
+      <c r="AA7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!Z11),"unknown",AllEntries!Z11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="U7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!U5),"unknown",AllEntries!U5)</f>
+      <c r="AB7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AA11),"unknown",AllEntries!AA11)</f>
+        <v>non-commercial only</v>
+      </c>
+      <c r="AC7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AB11),"unknown",AllEntries!AB11)</f>
+        <v>unknown</v>
+      </c>
+      <c r="AD7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AC11),"unknown",AllEntries!AC11)</f>
+        <v>non-commercial only</v>
+      </c>
+      <c r="AE7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AD11),"unknown",AllEntries!AD11)</f>
+        <v>unknown</v>
+      </c>
+      <c r="AF7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AE11),"unknown",AllEntries!AE11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="V7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!V5),"unknown",AllEntries!V5)</f>
+      <c r="AG7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AF11),"unknown",AllEntries!AF11)</f>
+        <v>unknown</v>
+      </c>
+      <c r="AH7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AG11),"unknown",AllEntries!AG11)</f>
+        <v>unknown</v>
+      </c>
+      <c r="AI7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AH11),"unknown",AllEntries!AH11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="W7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!W5),"unknown",AllEntries!W5)</f>
+      <c r="AJ7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AI11),"unknown",AllEntries!AI11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="X7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!X5),"unknown",AllEntries!X5)</f>
+      <c r="AK7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AJ11),"unknown",AllEntries!AJ11)</f>
+        <v>unknown</v>
+      </c>
+      <c r="AL7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AK11),"unknown",AllEntries!AK11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="Y7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!Y5),"unknown",AllEntries!Y5)</f>
+      <c r="AM7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AL11),"unknown",AllEntries!AL11)</f>
         <v>unrestricted</v>
       </c>
-      <c r="Z7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!Z5),"unknown",AllEntries!Z5)</f>
+      <c r="AN7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AM11),"unknown",AllEntries!AM11)</f>
         <v>unknown</v>
       </c>
-      <c r="AA7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AA5),"unknown",AllEntries!AA5)</f>
+      <c r="AO7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AN11),"unknown",AllEntries!AN11)</f>
         <v>unknown</v>
       </c>
-      <c r="AB7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AB5),"unknown",AllEntries!AB5)</f>
+      <c r="AP7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AO11),"unknown",AllEntries!AO11)</f>
         <v>unknown</v>
       </c>
-      <c r="AC7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AC5),"unknown",AllEntries!AC5)</f>
+      <c r="AQ7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AP11),"unknown",AllEntries!AP11)</f>
         <v>unknown</v>
       </c>
-      <c r="AD7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AD5),"unknown",AllEntries!AD5)</f>
+      <c r="AR7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AQ11),"unknown",AllEntries!AQ11)</f>
+        <v>unknown</v>
+      </c>
+      <c r="AS7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AR11),"unknown",AllEntries!AR11)</f>
+        <v>unknown</v>
+      </c>
+      <c r="AT7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AS11),"unknown",AllEntries!AS11)</f>
+        <v>unknown</v>
+      </c>
+      <c r="AU7" s="137" t="str">
+        <f>IF(ISBLANK(AllEntries!AT11),"unknown",AllEntries!AT11)</f>
         <v>non-commercial only</v>
       </c>
-      <c r="AE7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AE5),"unknown",AllEntries!AE5)</f>
+      <c r="AV7" s="165" t="str">
+        <f>IF(ISBLANK(AllEntries!AU11),"unknown",AllEntries!AU11)</f>
         <v>unknown</v>
       </c>
-      <c r="AF7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AF5),"unknown",AllEntries!AF5)</f>
-        <v>unrestricted</v>
-      </c>
-      <c r="AG7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AG5),"unknown",AllEntries!AG5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AH7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AH5),"unknown",AllEntries!AH5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AI7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AI5),"unknown",AllEntries!AI5)</f>
-        <v>unrestricted</v>
-      </c>
-      <c r="AJ7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AJ5),"unknown",AllEntries!AJ5)</f>
-        <v>unrestricted</v>
-      </c>
-      <c r="AK7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AK5),"unknown",AllEntries!AK5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AL7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AL5),"unknown",AllEntries!AL5)</f>
-        <v>unrestricted</v>
-      </c>
-      <c r="AM7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AM5),"unknown",AllEntries!AM5)</f>
-        <v>unrestricted</v>
-      </c>
-      <c r="AN7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AN5),"unknown",AllEntries!AN5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AO7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AO5),"unknown",AllEntries!AO5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AP7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AP5),"unknown",AllEntries!AP5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AQ7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AQ5),"unknown",AllEntries!AQ5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AR7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AR5),"unknown",AllEntries!AR5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AS7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AS5),"unknown",AllEntries!AS5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AT7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AT5),"unknown",AllEntries!AT5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AU7" s="164" t="str">
-        <f>IF(ISBLANK(AllEntries!AU5),"unknown",AllEntries!AU5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AV7" s="211" t="str">
-        <f>IF(ISBLANK(AllEntries!AV5),"unknown",AllEntries!AV5)</f>
-        <v>unknown</v>
-      </c>
-      <c r="AW7" s="147"/>
+      <c r="AW7" s="128"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
@@ -11340,332 +11811,332 @@
       <c r="BW7" s="2"/>
     </row>
     <row r="8" spans="1:75" s="36" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="198" t="s">
+      <c r="A8" s="154" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="183" t="s">
+      <c r="C8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="183" t="s">
+      <c r="D8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="183" t="s">
+      <c r="E8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="183" t="s">
+      <c r="F8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="G8" s="183" t="s">
+      <c r="G8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="183" t="s">
+      <c r="H8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="183" t="s">
+      <c r="I8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="J8" s="183" t="s">
+      <c r="J8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="K8" s="183" t="s">
+      <c r="K8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="L8" s="183" t="s">
+      <c r="L8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="M8" s="183" t="s">
+      <c r="M8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="N8" s="183" t="s">
+      <c r="N8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="O8" s="183" t="s">
+      <c r="O8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="P8" s="183" t="s">
+      <c r="P8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="Q8" s="183" t="s">
+      <c r="Q8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="R8" s="183" t="s">
+      <c r="R8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="S8" s="183" t="s">
+      <c r="S8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="T8" s="183" t="s">
+      <c r="T8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="U8" s="183" t="s">
+      <c r="U8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="V8" s="183" t="s">
+      <c r="V8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="W8" s="183" t="s">
+      <c r="W8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="X8" s="183" t="s">
+      <c r="X8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="183" t="s">
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AA8" s="183" t="s">
+      <c r="AA8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AB8" s="183"/>
-      <c r="AC8" s="183" t="s">
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AD8" s="183" t="s">
+      <c r="AD8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AE8" s="183" t="s">
+      <c r="AE8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AF8" s="183" t="s">
+      <c r="AF8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AG8" s="183" t="s">
+      <c r="AG8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AH8" s="183" t="s">
+      <c r="AH8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AI8" s="183" t="s">
+      <c r="AI8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AJ8" s="183" t="s">
+      <c r="AJ8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AK8" s="183" t="s">
+      <c r="AK8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AL8" s="183" t="s">
+      <c r="AL8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AM8" s="183" t="s">
+      <c r="AM8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AN8" s="183" t="s">
+      <c r="AN8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AO8" s="183" t="s">
+      <c r="AO8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AP8" s="183" t="s">
+      <c r="AP8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AQ8" s="183" t="s">
+      <c r="AQ8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AR8" s="183" t="s">
+      <c r="AR8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AS8" s="183" t="s">
+      <c r="AS8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AT8" s="183" t="s">
+      <c r="AT8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AU8" s="183" t="s">
+      <c r="AU8" s="142" t="s">
         <v>188</v>
       </c>
-      <c r="AV8" s="212" t="s">
+      <c r="AV8" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="AW8" s="186"/>
-      <c r="AX8" s="187"/>
-      <c r="AY8" s="187"/>
-      <c r="AZ8" s="187"/>
-      <c r="BA8" s="187"/>
-      <c r="BB8" s="187"/>
-      <c r="BC8" s="187"/>
-      <c r="BD8" s="187"/>
-      <c r="BE8" s="187"/>
-      <c r="BF8" s="187"/>
-      <c r="BG8" s="187"/>
-      <c r="BH8" s="187"/>
-      <c r="BI8" s="187"/>
-      <c r="BJ8" s="187"/>
-      <c r="BK8" s="187"/>
-      <c r="BL8" s="187"/>
-      <c r="BM8" s="187"/>
-      <c r="BN8" s="187"/>
-      <c r="BO8" s="187"/>
-      <c r="BP8" s="187"/>
-      <c r="BQ8" s="187"/>
-      <c r="BR8" s="187"/>
-      <c r="BS8" s="187"/>
-      <c r="BT8" s="187"/>
-      <c r="BU8" s="187"/>
-      <c r="BV8" s="187"/>
-      <c r="BW8" s="187"/>
+      <c r="AW8" s="145"/>
+      <c r="AX8" s="146"/>
+      <c r="AY8" s="146"/>
+      <c r="AZ8" s="146"/>
+      <c r="BA8" s="146"/>
+      <c r="BB8" s="146"/>
+      <c r="BC8" s="146"/>
+      <c r="BD8" s="146"/>
+      <c r="BE8" s="146"/>
+      <c r="BF8" s="146"/>
+      <c r="BG8" s="146"/>
+      <c r="BH8" s="146"/>
+      <c r="BI8" s="146"/>
+      <c r="BJ8" s="146"/>
+      <c r="BK8" s="146"/>
+      <c r="BL8" s="146"/>
+      <c r="BM8" s="146"/>
+      <c r="BN8" s="146"/>
+      <c r="BO8" s="146"/>
+      <c r="BP8" s="146"/>
+      <c r="BQ8" s="146"/>
+      <c r="BR8" s="146"/>
+      <c r="BS8" s="146"/>
+      <c r="BT8" s="146"/>
+      <c r="BU8" s="146"/>
+      <c r="BV8" s="146"/>
+      <c r="BW8" s="146"/>
     </row>
     <row r="9" spans="1:75" s="36" customFormat="1" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="198" t="s">
+      <c r="A9" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="183" t="s">
+      <c r="C9" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="183" t="s">
+      <c r="D9" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="183" t="s">
+      <c r="E9" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="183" t="s">
+      <c r="F9" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="G9" s="183" t="s">
+      <c r="G9" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="183" t="s">
+      <c r="H9" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="I9" s="183" t="s">
+      <c r="I9" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="183" t="s">
+      <c r="J9" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="K9" s="183" t="s">
+      <c r="K9" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="L9" s="183" t="s">
+      <c r="L9" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="M9" s="183" t="s">
+      <c r="M9" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="N9" s="183" t="s">
+      <c r="N9" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="O9" s="183" t="s">
+      <c r="O9" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="P9" s="183" t="s">
+      <c r="P9" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="Q9" s="184"/>
-      <c r="R9" s="184" t="s">
+      <c r="Q9" s="143"/>
+      <c r="R9" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="S9" s="183" t="s">
+      <c r="S9" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="T9" s="184" t="s">
+      <c r="T9" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="U9" s="184" t="s">
+      <c r="U9" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="V9" s="184" t="s">
+      <c r="V9" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="W9" s="184" t="s">
+      <c r="W9" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="X9" s="185" t="s">
+      <c r="X9" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="183"/>
-      <c r="Z9" s="183" t="s">
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="142" t="s">
         <v>162</v>
       </c>
-      <c r="AA9" s="183" t="s">
+      <c r="AA9" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="AB9" s="183"/>
-      <c r="AC9" s="183" t="s">
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="AD9" s="183" t="s">
+      <c r="AD9" s="142" t="s">
         <v>157</v>
       </c>
-      <c r="AE9" s="183"/>
-      <c r="AF9" s="183"/>
-      <c r="AG9" s="183"/>
-      <c r="AH9" s="183"/>
-      <c r="AI9" s="183" t="s">
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="AJ9" s="183" t="s">
+      <c r="AJ9" s="142" t="s">
         <v>158</v>
       </c>
-      <c r="AK9" s="183" t="s">
+      <c r="AK9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AL9" s="183" t="s">
+      <c r="AL9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AM9" s="183" t="s">
+      <c r="AM9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AN9" s="183" t="s">
+      <c r="AN9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AO9" s="183" t="s">
+      <c r="AO9" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="AP9" s="183" t="s">
+      <c r="AP9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AQ9" s="183" t="s">
+      <c r="AQ9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AR9" s="183" t="s">
+      <c r="AR9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AS9" s="183" t="s">
+      <c r="AS9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AT9" s="183" t="s">
+      <c r="AT9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AU9" s="183" t="s">
+      <c r="AU9" s="142" t="s">
         <v>159</v>
       </c>
-      <c r="AV9" s="212" t="s">
+      <c r="AV9" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="AW9" s="186"/>
-      <c r="AX9" s="187"/>
-      <c r="AY9" s="187"/>
-      <c r="AZ9" s="187"/>
-      <c r="BA9" s="187"/>
-      <c r="BB9" s="187"/>
-      <c r="BC9" s="187"/>
-      <c r="BD9" s="187"/>
-      <c r="BE9" s="187"/>
-      <c r="BF9" s="187"/>
-      <c r="BG9" s="187"/>
-      <c r="BH9" s="187"/>
-      <c r="BI9" s="187"/>
-      <c r="BJ9" s="187"/>
-      <c r="BK9" s="187"/>
-      <c r="BL9" s="187"/>
-      <c r="BM9" s="187"/>
-      <c r="BN9" s="187"/>
-      <c r="BO9" s="187"/>
-      <c r="BP9" s="187"/>
-      <c r="BQ9" s="187"/>
-      <c r="BR9" s="187"/>
-      <c r="BS9" s="187"/>
-      <c r="BT9" s="187"/>
-      <c r="BU9" s="187"/>
-      <c r="BV9" s="187"/>
-      <c r="BW9" s="187"/>
+      <c r="AW9" s="145"/>
+      <c r="AX9" s="146"/>
+      <c r="AY9" s="146"/>
+      <c r="AZ9" s="146"/>
+      <c r="BA9" s="146"/>
+      <c r="BB9" s="146"/>
+      <c r="BC9" s="146"/>
+      <c r="BD9" s="146"/>
+      <c r="BE9" s="146"/>
+      <c r="BF9" s="146"/>
+      <c r="BG9" s="146"/>
+      <c r="BH9" s="146"/>
+      <c r="BI9" s="146"/>
+      <c r="BJ9" s="146"/>
+      <c r="BK9" s="146"/>
+      <c r="BL9" s="146"/>
+      <c r="BM9" s="146"/>
+      <c r="BN9" s="146"/>
+      <c r="BO9" s="146"/>
+      <c r="BP9" s="146"/>
+      <c r="BQ9" s="146"/>
+      <c r="BR9" s="146"/>
+      <c r="BS9" s="146"/>
+      <c r="BT9" s="146"/>
+      <c r="BU9" s="146"/>
+      <c r="BV9" s="146"/>
+      <c r="BW9" s="146"/>
     </row>
     <row r="10" spans="1:75" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:75" x14ac:dyDescent="0.3">
@@ -11691,4 +12162,754 @@
     <ignoredError sqref="AO6" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="65.21875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="2:6" ht="25.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="173" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="174" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="174" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="175" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="176" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="177" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="116"/>
+      <c r="E4" s="181" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="177" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="181"/>
+      <c r="F5" s="116"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="177" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="179" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="181" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="177" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="179" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="181"/>
+      <c r="F7" s="116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="177" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="179" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="181"/>
+      <c r="F8" s="116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="178" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="180" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E9" s="181"/>
+      <c r="F9" s="116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="178" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="180" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="181"/>
+      <c r="F10" s="116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="178" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="180" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" s="181"/>
+      <c r="F11" s="116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B12" s="178" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="180" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="189"/>
+      <c r="F12" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="178" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="180" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="189" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B14" s="178" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="180" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="189"/>
+      <c r="F14" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B15" s="178" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="180" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="189"/>
+      <c r="F15" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="178" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="180" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" s="189" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B17" s="178" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="189"/>
+      <c r="F17" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="178" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="116" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="181" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="116"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="116"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="116" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" s="181"/>
+      <c r="F21" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="186" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="188" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="181"/>
+      <c r="F22" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="188" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="181" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="188" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="181" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="188" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="185" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="181" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="180" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="178" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="180" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="116" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="180" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="178" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="180" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="178" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="180" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="180" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="116" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="178" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="178" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="180" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="178" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="180" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="179" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="116" t="s">
+        <v>191</v>
+      </c>
+      <c r="E37" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="183" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="184" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="185"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="183" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="184" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="185" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="186" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="187" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="185"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="186" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="187" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="185"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="186" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="185"/>
+      <c r="E42" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="116"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="178" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="182" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="178" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="180" t="s">
+        <v>146</v>
+      </c>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="178" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="182" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="178" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="182" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="178" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="178" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="188" t="s">
+        <v>141</v>
+      </c>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="F48" s="116" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="178" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+    </row>
+  </sheetData>
+  <sortState ref="B4:E49">
+    <sortCondition ref="C4:C49"/>
+  </sortState>
+  <conditionalFormatting sqref="B5:F5 B21:F22 B7:F12 B26:F36 B38:F41 B19:F19 B17:F17 B14:F15 B49:F49 B43:F47">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:F20">
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:F6">
+    <cfRule type="containsText" dxfId="32" priority="11" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:F4">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:F24">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:F37">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:F23">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:F25">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:F18">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:F16">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:F13">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:F48">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:F42">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="unrestricted">
+      <formula>NOT(ISERROR(SEARCH("unrestricted",B42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>